--- a/Tesis/Resultados/Escalon/AC/SENTADO_Izquierdo_layer_1.xlsx
+++ b/Tesis/Resultados/Escalon/AC/SENTADO_Izquierdo_layer_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="852">
   <si>
     <t>W_i</t>
   </si>
@@ -31,436 +31,1204 @@
     <t>W_o</t>
   </si>
   <si>
-    <t>[-0.4508754312992096]</t>
-  </si>
-  <si>
-    <t>[0.4379039704799652]</t>
-  </si>
-  <si>
-    <t>[-0.47372427582740784]</t>
-  </si>
-  <si>
-    <t>[0.14258134365081787]</t>
-  </si>
-  <si>
-    <t>[-0.04001207277178764]</t>
-  </si>
-  <si>
-    <t>[-0.37018918991088867]</t>
-  </si>
-  <si>
-    <t>[-0.3932836353778839]</t>
-  </si>
-  <si>
-    <t>[-0.00229084026068449]</t>
-  </si>
-  <si>
-    <t>[0.16919264197349548]</t>
-  </si>
-  <si>
-    <t>[-0.19829946756362915]</t>
-  </si>
-  <si>
-    <t>[-0.14367198944091797]</t>
-  </si>
-  <si>
-    <t>[-0.5954247713088989]</t>
-  </si>
-  <si>
-    <t>[-0.0961177870631218]</t>
-  </si>
-  <si>
-    <t>[0.2836697995662689]</t>
-  </si>
-  <si>
-    <t>[0.30864036083221436]</t>
-  </si>
-  <si>
-    <t>[-0.12386035174131393]</t>
-  </si>
-  <si>
-    <t>[-0.1426827758550644]</t>
-  </si>
-  <si>
-    <t>[-0.123972088098526]</t>
-  </si>
-  <si>
-    <t>[0.28329339623451233]</t>
-  </si>
-  <si>
-    <t>[-0.647610604763031]</t>
-  </si>
-  <si>
-    <t>[0.20685525238513947]</t>
-  </si>
-  <si>
-    <t>[0.3233397901058197]</t>
-  </si>
-  <si>
-    <t>[0.10174857825040817]</t>
-  </si>
-  <si>
-    <t>[-0.050552550703287125]</t>
-  </si>
-  <si>
-    <t>[-0.034558750689029694]</t>
-  </si>
-  <si>
-    <t>[0.1390867680311203]</t>
-  </si>
-  <si>
-    <t>[-0.0729411169886589]</t>
-  </si>
-  <si>
-    <t>[0.5050914883613586]</t>
-  </si>
-  <si>
-    <t>[-0.19746172428131104]</t>
-  </si>
-  <si>
-    <t>[-0.31778115034103394]</t>
-  </si>
-  <si>
-    <t>[0.14974841475486755]</t>
-  </si>
-  <si>
-    <t>[-0.005113854538649321]</t>
-  </si>
-  <si>
-    <t>[0.42769378423690796]</t>
-  </si>
-  <si>
-    <t>[-0.2246067225933075]</t>
-  </si>
-  <si>
-    <t>[-0.456559956073761]</t>
-  </si>
-  <si>
-    <t>[-0.28124815225601196]</t>
-  </si>
-  <si>
-    <t>[0.08579455316066742]</t>
-  </si>
-  <si>
-    <t>[-0.42200085520744324]</t>
-  </si>
-  <si>
-    <t>[-0.6004090309143066]</t>
-  </si>
-  <si>
-    <t>[0.48410990834236145]</t>
-  </si>
-  <si>
-    <t>[0.14858412742614746]</t>
-  </si>
-  <si>
-    <t>[0.21175701916217804]</t>
-  </si>
-  <si>
-    <t>[-0.004299716092646122]</t>
-  </si>
-  <si>
-    <t>[-0.13031134009361267]</t>
-  </si>
-  <si>
-    <t>[-0.1845647096633911]</t>
-  </si>
-  <si>
-    <t>[-0.02402576431632042]</t>
-  </si>
-  <si>
-    <t>[-0.09723439067602158]</t>
-  </si>
-  <si>
-    <t>[-0.029131585732102394]</t>
-  </si>
-  <si>
-    <t>[-0.6521875858306885]</t>
-  </si>
-  <si>
-    <t>[-0.16128666698932648]</t>
-  </si>
-  <si>
-    <t>[0.004318875260651112]</t>
-  </si>
-  <si>
-    <t>[0.20578737556934357]</t>
-  </si>
-  <si>
-    <t>[0.5483430624008179]</t>
-  </si>
-  <si>
-    <t>[-0.1006583720445633]</t>
-  </si>
-  <si>
-    <t>[-0.6184505820274353]</t>
-  </si>
-  <si>
-    <t>[-0.4316652715206146]</t>
-  </si>
-  <si>
-    <t>[0.06910646706819534]</t>
-  </si>
-  <si>
-    <t>[0.5640299916267395]</t>
-  </si>
-  <si>
-    <t>[0.2907307744026184]</t>
-  </si>
-  <si>
-    <t>[-0.2714482247829437]</t>
-  </si>
-  <si>
-    <t>[-0.022214388474822044]</t>
-  </si>
-  <si>
-    <t>[0.6537185907363892]</t>
-  </si>
-  <si>
-    <t>[0.6812131404876709]</t>
-  </si>
-  <si>
-    <t>[-0.4668257534503937]</t>
-  </si>
-  <si>
-    <t>[0.4778018295764923]</t>
-  </si>
-  <si>
-    <t>[-0.2993859350681305]</t>
-  </si>
-  <si>
-    <t>[-0.21170441806316376]</t>
-  </si>
-  <si>
-    <t>[-0.30187666416168213]</t>
-  </si>
-  <si>
-    <t>[0.19666670262813568]</t>
-  </si>
-  <si>
-    <t>[0.5681734681129456]</t>
-  </si>
-  <si>
-    <t>[0.4371691942214966]</t>
-  </si>
-  <si>
-    <t>[0.2488841861486435]</t>
-  </si>
-  <si>
-    <t>[0.10302945971488953]</t>
-  </si>
-  <si>
-    <t>[-0.15126954019069672]</t>
-  </si>
-  <si>
-    <t>[0.488948255777359]</t>
-  </si>
-  <si>
-    <t>[0.2898375391960144]</t>
-  </si>
-  <si>
-    <t>[-0.19725236296653748]</t>
-  </si>
-  <si>
-    <t>[-0.4118511974811554]</t>
-  </si>
-  <si>
-    <t>[0.08261477202177048]</t>
-  </si>
-  <si>
-    <t>[-0.11471568793058395]</t>
-  </si>
-  <si>
-    <t>[0.3366459608078003]</t>
-  </si>
-  <si>
-    <t>[-0.3437672555446625]</t>
-  </si>
-  <si>
-    <t>[0.1472775936126709]</t>
-  </si>
-  <si>
-    <t>[-0.19731952250003815]</t>
-  </si>
-  <si>
-    <t>[0.06850769370794296]</t>
-  </si>
-  <si>
-    <t>[-0.1033404991030693]</t>
-  </si>
-  <si>
-    <t>[-0.5063716173171997]</t>
-  </si>
-  <si>
-    <t>[0.03210894390940666]</t>
-  </si>
-  <si>
-    <t>[-0.5949878096580505]</t>
-  </si>
-  <si>
-    <t>[0.19053445756435394]</t>
-  </si>
-  <si>
-    <t>[0.21980656683444977]</t>
-  </si>
-  <si>
-    <t>[0.3799531161785126]</t>
-  </si>
-  <si>
-    <t>[-0.35527750849723816]</t>
-  </si>
-  <si>
-    <t>[0.1567743569612503]</t>
-  </si>
-  <si>
-    <t>[-0.3170056641101837]</t>
-  </si>
-  <si>
-    <t>[0.016777927055954933]</t>
-  </si>
-  <si>
-    <t>[0.21774455904960632]</t>
-  </si>
-  <si>
-    <t>[0.08245297521352768]</t>
-  </si>
-  <si>
-    <t>[0.6010948419570923]</t>
-  </si>
-  <si>
-    <t>[-0.2301790714263916]</t>
-  </si>
-  <si>
-    <t>[0.11055129021406174]</t>
-  </si>
-  <si>
-    <t>[0.11093824356794357]</t>
-  </si>
-  <si>
-    <t>[0.3911597728729248]</t>
-  </si>
-  <si>
-    <t>[0.29972365498542786]</t>
-  </si>
-  <si>
-    <t>[0.5967087745666504]</t>
-  </si>
-  <si>
-    <t>[0.08195926994085312]</t>
-  </si>
-  <si>
-    <t>[-0.5516789555549622]</t>
-  </si>
-  <si>
-    <t>[0.11555968225002289]</t>
-  </si>
-  <si>
-    <t>[0.24864837527275085]</t>
-  </si>
-  <si>
-    <t>[-0.24437151849269867]</t>
-  </si>
-  <si>
-    <t>[-0.5592828989028931]</t>
-  </si>
-  <si>
-    <t>[0.5317816734313965]</t>
-  </si>
-  <si>
-    <t>[0.016181636601686478]</t>
-  </si>
-  <si>
-    <t>[-0.011453714221715927]</t>
-  </si>
-  <si>
-    <t>[0.10164741426706314]</t>
-  </si>
-  <si>
-    <t>[-0.5435330867767334]</t>
-  </si>
-  <si>
-    <t>[-0.07264050841331482]</t>
-  </si>
-  <si>
-    <t>[-0.23397737741470337]</t>
-  </si>
-  <si>
-    <t>[-0.6335290670394897]</t>
-  </si>
-  <si>
-    <t>[-0.44468531012535095]</t>
-  </si>
-  <si>
-    <t>[-0.6939749717712402]</t>
-  </si>
-  <si>
-    <t>[-0.19813209772109985]</t>
-  </si>
-  <si>
-    <t>[-0.4044048488140106]</t>
-  </si>
-  <si>
-    <t>[-0.19538573920726776]</t>
-  </si>
-  <si>
-    <t>[-0.0924154594540596]</t>
-  </si>
-  <si>
-    <t>[0.5020036101341248]</t>
-  </si>
-  <si>
-    <t>[-0.36065495014190674]</t>
-  </si>
-  <si>
-    <t>[-0.13664084672927856]</t>
-  </si>
-  <si>
-    <t>[-0.6034049391746521]</t>
-  </si>
-  <si>
-    <t>[0.6566035747528076]</t>
-  </si>
-  <si>
-    <t>[0.15856428444385529]</t>
-  </si>
-  <si>
-    <t>[-0.06520701199769974]</t>
-  </si>
-  <si>
-    <t>[0.05588600039482117]</t>
-  </si>
-  <si>
-    <t>[-0.13818450272083282]</t>
-  </si>
-  <si>
-    <t>[-0.06016480550169945]</t>
-  </si>
-  <si>
-    <t>[0.03736170753836632]</t>
-  </si>
-  <si>
-    <t>[0.5459832549095154]</t>
-  </si>
-  <si>
-    <t>[0.30119818449020386]</t>
-  </si>
-  <si>
-    <t>[-0.4623453617095947]</t>
-  </si>
-  <si>
-    <t>[0.1607574224472046]</t>
-  </si>
-  <si>
-    <t>[0.6881470680236816]</t>
-  </si>
-  <si>
-    <t>[0.30769431591033936]</t>
-  </si>
-  <si>
-    <t>[0.19575189054012299]</t>
-  </si>
-  <si>
-    <t>[0.09251163899898529]</t>
+    <t>[-0.48649534583091736]</t>
+  </si>
+  <si>
+    <t>[0.22693997621536255]</t>
+  </si>
+  <si>
+    <t>[-0.05418575182557106]</t>
+  </si>
+  <si>
+    <t>[0.1943581998348236]</t>
+  </si>
+  <si>
+    <t>[0.5614849925041199]</t>
+  </si>
+  <si>
+    <t>[-0.0503247007727623]</t>
+  </si>
+  <si>
+    <t>[0.04092763364315033]</t>
+  </si>
+  <si>
+    <t>[0.20838455855846405]</t>
+  </si>
+  <si>
+    <t>[-0.1197017952799797]</t>
+  </si>
+  <si>
+    <t>[-0.19540898501873016]</t>
+  </si>
+  <si>
+    <t>[0.3191256821155548]</t>
+  </si>
+  <si>
+    <t>[-0.1892177313566208]</t>
+  </si>
+  <si>
+    <t>[0.10758201777935028]</t>
+  </si>
+  <si>
+    <t>[0.12896326184272766]</t>
+  </si>
+  <si>
+    <t>[-0.34567883610725403]</t>
+  </si>
+  <si>
+    <t>[-0.14243923127651215]</t>
+  </si>
+  <si>
+    <t>[-0.18346205353736877]</t>
+  </si>
+  <si>
+    <t>[0.2057066261768341]</t>
+  </si>
+  <si>
+    <t>[-0.02984372340142727]</t>
+  </si>
+  <si>
+    <t>[0.38120970129966736]</t>
+  </si>
+  <si>
+    <t>[-0.12261047214269638]</t>
+  </si>
+  <si>
+    <t>[-0.1719011813402176]</t>
+  </si>
+  <si>
+    <t>[0.034268155694007874]</t>
+  </si>
+  <si>
+    <t>[-0.23376722633838654]</t>
+  </si>
+  <si>
+    <t>[-0.0833633691072464]</t>
+  </si>
+  <si>
+    <t>[0.23680810630321503]</t>
+  </si>
+  <si>
+    <t>[0.1501278430223465]</t>
+  </si>
+  <si>
+    <t>[0.4769602119922638]</t>
+  </si>
+  <si>
+    <t>[0.23275157809257507]</t>
+  </si>
+  <si>
+    <t>[-0.233826145529747]</t>
+  </si>
+  <si>
+    <t>[-0.30043086409568787]</t>
+  </si>
+  <si>
+    <t>[-0.013972598128020763]</t>
+  </si>
+  <si>
+    <t>[-0.3678048551082611]</t>
+  </si>
+  <si>
+    <t>[0.3896864950656891]</t>
+  </si>
+  <si>
+    <t>[0.3483400344848633]</t>
+  </si>
+  <si>
+    <t>[0.22879445552825928]</t>
+  </si>
+  <si>
+    <t>[0.1868905872106552]</t>
+  </si>
+  <si>
+    <t>[-0.08723539113998413]</t>
+  </si>
+  <si>
+    <t>[-0.14754734933376312]</t>
+  </si>
+  <si>
+    <t>[0.020514803007245064]</t>
+  </si>
+  <si>
+    <t>[-0.1665988713502884]</t>
+  </si>
+  <si>
+    <t>[0.22843749821186066]</t>
+  </si>
+  <si>
+    <t>[0.07451732456684113]</t>
+  </si>
+  <si>
+    <t>[-0.1895459145307541]</t>
+  </si>
+  <si>
+    <t>[0.09035511314868927]</t>
+  </si>
+  <si>
+    <t>[-0.03107975795865059]</t>
+  </si>
+  <si>
+    <t>[0.02760465443134308]</t>
+  </si>
+  <si>
+    <t>[-0.04856431111693382]</t>
+  </si>
+  <si>
+    <t>[0.45905253291130066]</t>
+  </si>
+  <si>
+    <t>[-0.16672435402870178]</t>
+  </si>
+  <si>
+    <t>[0.1262596994638443]</t>
+  </si>
+  <si>
+    <t>[0.09374558180570602]</t>
+  </si>
+  <si>
+    <t>[-0.22477568686008453]</t>
+  </si>
+  <si>
+    <t>[0.28292933106422424]</t>
+  </si>
+  <si>
+    <t>[-0.3787292242050171]</t>
+  </si>
+  <si>
+    <t>[0.29164448380470276]</t>
+  </si>
+  <si>
+    <t>[-0.371473103761673]</t>
+  </si>
+  <si>
+    <t>[-0.012578396126627922]</t>
+  </si>
+  <si>
+    <t>[-0.22125741839408875]</t>
+  </si>
+  <si>
+    <t>[0.04634209722280502]</t>
+  </si>
+  <si>
+    <t>[-0.35066989064216614]</t>
+  </si>
+  <si>
+    <t>[0.054976265877485275]</t>
+  </si>
+  <si>
+    <t>[0.17575298249721527]</t>
+  </si>
+  <si>
+    <t>[0.04049002751708031]</t>
+  </si>
+  <si>
+    <t>[-0.3355275094509125]</t>
+  </si>
+  <si>
+    <t>[0.09818076342344284]</t>
+  </si>
+  <si>
+    <t>[0.1560169756412506]</t>
+  </si>
+  <si>
+    <t>[0.38608163595199585]</t>
+  </si>
+  <si>
+    <t>[-0.26713910698890686]</t>
+  </si>
+  <si>
+    <t>[0.31595245003700256]</t>
+  </si>
+  <si>
+    <t>[0.1365860402584076]</t>
+  </si>
+  <si>
+    <t>[0.14701201021671295]</t>
+  </si>
+  <si>
+    <t>[-0.04952538013458252]</t>
+  </si>
+  <si>
+    <t>[0.5288158655166626]</t>
+  </si>
+  <si>
+    <t>[0.20501817762851715]</t>
+  </si>
+  <si>
+    <t>[0.0798022672533989]</t>
+  </si>
+  <si>
+    <t>[0.3432011604309082]</t>
+  </si>
+  <si>
+    <t>[-0.1584741473197937]</t>
+  </si>
+  <si>
+    <t>[-0.23628295958042145]</t>
+  </si>
+  <si>
+    <t>[0.09302065521478653]</t>
+  </si>
+  <si>
+    <t>[-0.45850253105163574]</t>
+  </si>
+  <si>
+    <t>[0.43699368834495544]</t>
+  </si>
+  <si>
+    <t>[0.45712703466415405]</t>
+  </si>
+  <si>
+    <t>[-0.04221244156360626]</t>
+  </si>
+  <si>
+    <t>[-0.07730810344219208]</t>
+  </si>
+  <si>
+    <t>[0.24230140447616577]</t>
+  </si>
+  <si>
+    <t>[0.1446937918663025]</t>
+  </si>
+  <si>
+    <t>[0.5470139980316162]</t>
+  </si>
+  <si>
+    <t>[0.33103978633880615]</t>
+  </si>
+  <si>
+    <t>[0.12218096852302551]</t>
+  </si>
+  <si>
+    <t>[-0.021485619246959686]</t>
+  </si>
+  <si>
+    <t>[0.2597208023071289]</t>
+  </si>
+  <si>
+    <t>[-0.4986426532268524]</t>
+  </si>
+  <si>
+    <t>[0.4296717047691345]</t>
+  </si>
+  <si>
+    <t>[0.04369458556175232]</t>
+  </si>
+  <si>
+    <t>[-0.36035269498825073]</t>
+  </si>
+  <si>
+    <t>[-0.2953869700431824]</t>
+  </si>
+  <si>
+    <t>[0.08037025481462479]</t>
+  </si>
+  <si>
+    <t>[-0.4825294315814972]</t>
+  </si>
+  <si>
+    <t>[0.31998971104621887]</t>
+  </si>
+  <si>
+    <t>[0.2684219479560852]</t>
+  </si>
+  <si>
+    <t>[0.34096983075141907]</t>
+  </si>
+  <si>
+    <t>[-0.23443473875522614]</t>
+  </si>
+  <si>
+    <t>[-0.003501155646517873]</t>
+  </si>
+  <si>
+    <t>[0.0590195432305336]</t>
+  </si>
+  <si>
+    <t>[0.5357418656349182]</t>
+  </si>
+  <si>
+    <t>[0.5602385997772217]</t>
+  </si>
+  <si>
+    <t>[0.06882338225841522]</t>
+  </si>
+  <si>
+    <t>[-0.3814792037010193]</t>
+  </si>
+  <si>
+    <t>[0.30427607893943787]</t>
+  </si>
+  <si>
+    <t>[-0.3634719252586365]</t>
+  </si>
+  <si>
+    <t>[-0.004226616118103266]</t>
+  </si>
+  <si>
+    <t>[-0.05035446584224701]</t>
+  </si>
+  <si>
+    <t>[0.35141581296920776]</t>
+  </si>
+  <si>
+    <t>[-0.05351165309548378]</t>
+  </si>
+  <si>
+    <t>[0.43755924701690674]</t>
+  </si>
+  <si>
+    <t>[0.2030249387025833]</t>
+  </si>
+  <si>
+    <t>[0.45383450388908386]</t>
+  </si>
+  <si>
+    <t>[0.06706420332193375]</t>
+  </si>
+  <si>
+    <t>[0.11091206967830658]</t>
+  </si>
+  <si>
+    <t>[-0.09226112067699432]</t>
+  </si>
+  <si>
+    <t>[0.19280052185058594]</t>
+  </si>
+  <si>
+    <t>[0.23629550635814667]</t>
+  </si>
+  <si>
+    <t>[-0.33663737773895264]</t>
+  </si>
+  <si>
+    <t>[0.38658085465431213]</t>
+  </si>
+  <si>
+    <t>[-0.04102712124586105]</t>
+  </si>
+  <si>
+    <t>[0.4826526939868927]</t>
+  </si>
+  <si>
+    <t>[0.3253259062767029]</t>
+  </si>
+  <si>
+    <t>[-0.02930845506489277]</t>
+  </si>
+  <si>
+    <t>[0.1956324279308319]</t>
+  </si>
+  <si>
+    <t>[-0.13213025033473969]</t>
+  </si>
+  <si>
+    <t>[0.3667380213737488]</t>
+  </si>
+  <si>
+    <t>[-0.09508238732814789]</t>
+  </si>
+  <si>
+    <t>[0.3556758463382721]</t>
+  </si>
+  <si>
+    <t>[-0.2495136708021164]</t>
+  </si>
+  <si>
+    <t>[-0.30657297372817993]</t>
+  </si>
+  <si>
+    <t>[-0.33896303176879883]</t>
+  </si>
+  <si>
+    <t>[0.4462098777294159]</t>
+  </si>
+  <si>
+    <t>[-0.10613656789064407]</t>
+  </si>
+  <si>
+    <t>[0.23487065732479095]</t>
+  </si>
+  <si>
+    <t>[0.12041064351797104]</t>
+  </si>
+  <si>
+    <t>[0.2447468489408493]</t>
+  </si>
+  <si>
+    <t>[0.33596497774124146]</t>
+  </si>
+  <si>
+    <t>[-0.37646302580833435]</t>
+  </si>
+  <si>
+    <t>[0.10150448977947235]</t>
+  </si>
+  <si>
+    <t>[0.3609100580215454]</t>
+  </si>
+  <si>
+    <t>[0.06079287454485893]</t>
+  </si>
+  <si>
+    <t>[-0.08747510612010956]</t>
+  </si>
+  <si>
+    <t>[-0.17563432455062866]</t>
+  </si>
+  <si>
+    <t>[-0.23045477271080017]</t>
+  </si>
+  <si>
+    <t>[-0.12782785296440125]</t>
+  </si>
+  <si>
+    <t>[-0.19521354138851166]</t>
+  </si>
+  <si>
+    <t>[-0.22732631862163544]</t>
+  </si>
+  <si>
+    <t>[0.16144265234470367]</t>
+  </si>
+  <si>
+    <t>[0.31729623675346375]</t>
+  </si>
+  <si>
+    <t>[0.18991106748580933]</t>
+  </si>
+  <si>
+    <t>[0.46202778816223145]</t>
+  </si>
+  <si>
+    <t>[0.07445718348026276]</t>
+  </si>
+  <si>
+    <t>[-0.26836323738098145]</t>
+  </si>
+  <si>
+    <t>[0.44723838567733765]</t>
+  </si>
+  <si>
+    <t>[0.5020639300346375]</t>
+  </si>
+  <si>
+    <t>[-0.2463720589876175]</t>
+  </si>
+  <si>
+    <t>[0.08105683326721191]</t>
+  </si>
+  <si>
+    <t>[0.46436285972595215]</t>
+  </si>
+  <si>
+    <t>[-0.5828582644462585]</t>
+  </si>
+  <si>
+    <t>[-0.12230252474546432]</t>
+  </si>
+  <si>
+    <t>[-0.5558398365974426]</t>
+  </si>
+  <si>
+    <t>[-0.03908190503716469]</t>
+  </si>
+  <si>
+    <t>[-0.5291928052902222]</t>
+  </si>
+  <si>
+    <t>[-0.35866236686706543]</t>
+  </si>
+  <si>
+    <t>[-0.43582624197006226]</t>
+  </si>
+  <si>
+    <t>[-0.09866960346698761]</t>
+  </si>
+  <si>
+    <t>[-0.059813134372234344]</t>
+  </si>
+  <si>
+    <t>[-0.33202680945396423]</t>
+  </si>
+  <si>
+    <t>[-0.11323089897632599]</t>
+  </si>
+  <si>
+    <t>[0.04928941652178764]</t>
+  </si>
+  <si>
+    <t>[0.0880487784743309]</t>
+  </si>
+  <si>
+    <t>[-0.5291243195533752]</t>
+  </si>
+  <si>
+    <t>[0.11448222398757935]</t>
+  </si>
+  <si>
+    <t>[0.10102944076061249]</t>
+  </si>
+  <si>
+    <t>[0.3103746175765991]</t>
+  </si>
+  <si>
+    <t>[0.23716922104358673]</t>
+  </si>
+  <si>
+    <t>[-0.2369590699672699]</t>
+  </si>
+  <si>
+    <t>[0.2957057058811188]</t>
+  </si>
+  <si>
+    <t>[0.311993271112442]</t>
+  </si>
+  <si>
+    <t>[-0.42290881276130676]</t>
+  </si>
+  <si>
+    <t>[-0.5970338582992554]</t>
+  </si>
+  <si>
+    <t>[-0.520732581615448]</t>
+  </si>
+  <si>
+    <t>[0.3266467750072479]</t>
+  </si>
+  <si>
+    <t>[0.07461986690759659]</t>
+  </si>
+  <si>
+    <t>[-0.148705393075943]</t>
+  </si>
+  <si>
+    <t>[-0.0713675320148468]</t>
+  </si>
+  <si>
+    <t>[-0.02275269851088524]</t>
+  </si>
+  <si>
+    <t>[0.05899682641029358]</t>
+  </si>
+  <si>
+    <t>[-0.27211785316467285]</t>
+  </si>
+  <si>
+    <t>[-0.06609140336513519]</t>
+  </si>
+  <si>
+    <t>[-0.4811517000198364]</t>
+  </si>
+  <si>
+    <t>[0.21762771904468536]</t>
+  </si>
+  <si>
+    <t>[0.0020226670894771814]</t>
+  </si>
+  <si>
+    <t>[-0.42755112051963806]</t>
+  </si>
+  <si>
+    <t>[-0.057575665414333344]</t>
+  </si>
+  <si>
+    <t>[0.04577942565083504]</t>
+  </si>
+  <si>
+    <t>[-0.06335407495498657]</t>
+  </si>
+  <si>
+    <t>[0.017606884241104126]</t>
+  </si>
+  <si>
+    <t>[-0.3637892007827759]</t>
+  </si>
+  <si>
+    <t>[-0.2602892816066742]</t>
+  </si>
+  <si>
+    <t>[0.11111868917942047]</t>
+  </si>
+  <si>
+    <t>[-0.52759850025177]</t>
+  </si>
+  <si>
+    <t>[0.10844849795103073]</t>
+  </si>
+  <si>
+    <t>[0.025029152631759644]</t>
+  </si>
+  <si>
+    <t>[-0.5271933674812317]</t>
+  </si>
+  <si>
+    <t>[0.3095480799674988]</t>
+  </si>
+  <si>
+    <t>[0.12303369492292404]</t>
+  </si>
+  <si>
+    <t>[-0.5131170153617859]</t>
+  </si>
+  <si>
+    <t>[0.11460770666599274]</t>
+  </si>
+  <si>
+    <t>[-0.09462636709213257]</t>
+  </si>
+  <si>
+    <t>[0.2430027574300766]</t>
+  </si>
+  <si>
+    <t>[0.008101330138742924]</t>
+  </si>
+  <si>
+    <t>[0.1613473743200302]</t>
+  </si>
+  <si>
+    <t>[-0.38486480712890625]</t>
+  </si>
+  <si>
+    <t>[-0.11062727123498917]</t>
+  </si>
+  <si>
+    <t>[-0.3227882981300354]</t>
+  </si>
+  <si>
+    <t>[0.1624116152524948]</t>
+  </si>
+  <si>
+    <t>[0.3800230324268341]</t>
+  </si>
+  <si>
+    <t>[0.4120788872241974]</t>
+  </si>
+  <si>
+    <t>[-0.23114416003227234]</t>
+  </si>
+  <si>
+    <t>[-0.36441662907600403]</t>
+  </si>
+  <si>
+    <t>[0.03347983583807945]</t>
+  </si>
+  <si>
+    <t>[-0.15242385864257812]</t>
+  </si>
+  <si>
+    <t>[-0.1455165147781372]</t>
+  </si>
+  <si>
+    <t>[0.102945476770401]</t>
+  </si>
+  <si>
+    <t>[-0.4302610754966736]</t>
+  </si>
+  <si>
+    <t>[0.2908283770084381]</t>
+  </si>
+  <si>
+    <t>[-0.2392052412033081]</t>
+  </si>
+  <si>
+    <t>[0.022025542333722115]</t>
+  </si>
+  <si>
+    <t>[0.07860246300697327]</t>
+  </si>
+  <si>
+    <t>[0.15638884902000427]</t>
+  </si>
+  <si>
+    <t>[-0.0653771460056305]</t>
+  </si>
+  <si>
+    <t>[0.02254510670900345]</t>
+  </si>
+  <si>
+    <t>[-0.448189377784729]</t>
+  </si>
+  <si>
+    <t>[0.06793861091136932]</t>
+  </si>
+  <si>
+    <t>[0.24644280970096588]</t>
+  </si>
+  <si>
+    <t>[-0.11818112432956696]</t>
+  </si>
+  <si>
+    <t>[-0.08547735959291458]</t>
+  </si>
+  <si>
+    <t>[0.40267542004585266]</t>
+  </si>
+  <si>
+    <t>[0.44774743914604187]</t>
+  </si>
+  <si>
+    <t>[0.5184220671653748]</t>
+  </si>
+  <si>
+    <t>[0.25155654549598694]</t>
+  </si>
+  <si>
+    <t>[-0.1333397477865219]</t>
+  </si>
+  <si>
+    <t>[0.3209165334701538]</t>
+  </si>
+  <si>
+    <t>[0.1964232474565506]</t>
+  </si>
+  <si>
+    <t>[-0.24224840104579926]</t>
+  </si>
+  <si>
+    <t>[-0.2290779948234558]</t>
+  </si>
+  <si>
+    <t>[0.5037477612495422]</t>
+  </si>
+  <si>
+    <t>[0.10005193203687668]</t>
+  </si>
+  <si>
+    <t>[0.09007637202739716]</t>
+  </si>
+  <si>
+    <t>[-0.5065516233444214]</t>
+  </si>
+  <si>
+    <t>[0.5035804510116577]</t>
+  </si>
+  <si>
+    <t>[-0.20824556052684784]</t>
+  </si>
+  <si>
+    <t>[0.034526608884334564]</t>
+  </si>
+  <si>
+    <t>[-0.22122716903686523]</t>
+  </si>
+  <si>
+    <t>[0.07060979306697845]</t>
+  </si>
+  <si>
+    <t>[-0.19729715585708618]</t>
+  </si>
+  <si>
+    <t>[-0.32915863394737244]</t>
+  </si>
+  <si>
+    <t>[-0.18372832238674164]</t>
+  </si>
+  <si>
+    <t>[0.06230201572179794]</t>
+  </si>
+  <si>
+    <t>[0.34724298119544983]</t>
+  </si>
+  <si>
+    <t>[0.31420189142227173]</t>
+  </si>
+  <si>
+    <t>[-0.08014383167028427]</t>
+  </si>
+  <si>
+    <t>[-0.17951558530330658]</t>
+  </si>
+  <si>
+    <t>[-0.03656882420182228]</t>
+  </si>
+  <si>
+    <t>[0.04215841367840767]</t>
+  </si>
+  <si>
+    <t>[-0.3147844076156616]</t>
+  </si>
+  <si>
+    <t>[-0.08951707184314728]</t>
+  </si>
+  <si>
+    <t>[0.5729925036430359]</t>
+  </si>
+  <si>
+    <t>[-0.20967455208301544]</t>
+  </si>
+  <si>
+    <t>[-0.15978164970874786]</t>
+  </si>
+  <si>
+    <t>[0.275704562664032]</t>
+  </si>
+  <si>
+    <t>[-0.23685066401958466]</t>
+  </si>
+  <si>
+    <t>[0.16364134848117828]</t>
+  </si>
+  <si>
+    <t>[0.34743884205818176]</t>
+  </si>
+  <si>
+    <t>[-0.3768026828765869]</t>
+  </si>
+  <si>
+    <t>[0.29464191198349]</t>
+  </si>
+  <si>
+    <t>[0.14826112985610962]</t>
+  </si>
+  <si>
+    <t>[-0.3653905689716339]</t>
+  </si>
+  <si>
+    <t>[-0.16317598521709442]</t>
+  </si>
+  <si>
+    <t>[0.01500904094427824]</t>
+  </si>
+  <si>
+    <t>[-0.17401628196239471]</t>
+  </si>
+  <si>
+    <t>[-0.263756662607193]</t>
+  </si>
+  <si>
+    <t>[-0.034067682921886444]</t>
+  </si>
+  <si>
+    <t>[-0.0850638821721077]</t>
+  </si>
+  <si>
+    <t>[0.19498229026794434]</t>
+  </si>
+  <si>
+    <t>[0.13229404389858246]</t>
+  </si>
+  <si>
+    <t>[0.059176016598939896]</t>
+  </si>
+  <si>
+    <t>[-0.12400573492050171]</t>
+  </si>
+  <si>
+    <t>[-0.2136324644088745]</t>
+  </si>
+  <si>
+    <t>[-0.08744274824857712]</t>
+  </si>
+  <si>
+    <t>[-0.11693549156188965]</t>
+  </si>
+  <si>
+    <t>[-0.2606187164783478]</t>
+  </si>
+  <si>
+    <t>[0.14937549829483032]</t>
+  </si>
+  <si>
+    <t>[-0.2721388638019562]</t>
+  </si>
+  <si>
+    <t>[0.14824356138706207]</t>
+  </si>
+  <si>
+    <t>[0.10908866673707962]</t>
+  </si>
+  <si>
+    <t>[-0.019801083952188492]</t>
+  </si>
+  <si>
+    <t>[-0.17905251681804657]</t>
+  </si>
+  <si>
+    <t>[-0.04525063931941986]</t>
+  </si>
+  <si>
+    <t>[-0.016934454441070557]</t>
+  </si>
+  <si>
+    <t>[-0.36192360520362854]</t>
+  </si>
+  <si>
+    <t>[0.05349992960691452]</t>
+  </si>
+  <si>
+    <t>[-0.18050214648246765]</t>
+  </si>
+  <si>
+    <t>[-0.2114069163799286]</t>
+  </si>
+  <si>
+    <t>[-0.2226743996143341]</t>
+  </si>
+  <si>
+    <t>[0.09917767345905304]</t>
+  </si>
+  <si>
+    <t>[0.06993591040372849]</t>
+  </si>
+  <si>
+    <t>[-0.22059589624404907]</t>
+  </si>
+  <si>
+    <t>[0.053402721881866455]</t>
+  </si>
+  <si>
+    <t>[0.012802980840206146]</t>
+  </si>
+  <si>
+    <t>[0.28898492455482483]</t>
+  </si>
+  <si>
+    <t>[0.26104357838630676]</t>
+  </si>
+  <si>
+    <t>[-0.15075017511844635]</t>
+  </si>
+  <si>
+    <t>[0.018846288323402405]</t>
+  </si>
+  <si>
+    <t>[0.15596388280391693]</t>
+  </si>
+  <si>
+    <t>[-0.3465164601802826]</t>
+  </si>
+  <si>
+    <t>[0.29128995537757874]</t>
+  </si>
+  <si>
+    <t>[-0.5685261487960815]</t>
+  </si>
+  <si>
+    <t>[-0.3981075882911682]</t>
+  </si>
+  <si>
+    <t>[-0.15551945567131042]</t>
+  </si>
+  <si>
+    <t>[-0.2061346024274826]</t>
+  </si>
+  <si>
+    <t>[-0.16679216921329498]</t>
+  </si>
+  <si>
+    <t>[0.060835812240839005]</t>
+  </si>
+  <si>
+    <t>[-0.01256307028234005]</t>
+  </si>
+  <si>
+    <t>[0.20556414127349854]</t>
+  </si>
+  <si>
+    <t>[0.21480974555015564]</t>
+  </si>
+  <si>
+    <t>[0.05311070382595062]</t>
+  </si>
+  <si>
+    <t>[0.251874715089798]</t>
+  </si>
+  <si>
+    <t>[-0.2628026306629181]</t>
+  </si>
+  <si>
+    <t>[0.4696613550186157]</t>
+  </si>
+  <si>
+    <t>[-0.15120919048786163]</t>
+  </si>
+  <si>
+    <t>[0.4793742895126343]</t>
+  </si>
+  <si>
+    <t>[0.00013469619443640113]</t>
+  </si>
+  <si>
+    <t>[0.26903146505355835]</t>
+  </si>
+  <si>
+    <t>[0.013905453495681286]</t>
+  </si>
+  <si>
+    <t>[-0.33385932445526123]</t>
+  </si>
+  <si>
+    <t>[0.01895068772137165]</t>
+  </si>
+  <si>
+    <t>[0.049220237880945206]</t>
+  </si>
+  <si>
+    <t>[-0.09309877455234528]</t>
+  </si>
+  <si>
+    <t>[-0.15193720161914825]</t>
+  </si>
+  <si>
+    <t>[-0.36865201592445374]</t>
+  </si>
+  <si>
+    <t>[0.24645765125751495]</t>
+  </si>
+  <si>
+    <t>[-0.12296444922685623]</t>
+  </si>
+  <si>
+    <t>[-0.1767696738243103]</t>
+  </si>
+  <si>
+    <t>[-0.06954212486743927]</t>
+  </si>
+  <si>
+    <t>[0.15126588940620422]</t>
+  </si>
+  <si>
+    <t>[-0.21477626264095306]</t>
+  </si>
+  <si>
+    <t>[0.04601147398352623]</t>
+  </si>
+  <si>
+    <t>[-0.3657313287258148]</t>
+  </si>
+  <si>
+    <t>[-0.1260717660188675]</t>
+  </si>
+  <si>
+    <t>[0.09462833404541016]</t>
+  </si>
+  <si>
+    <t>[0.34107112884521484]</t>
+  </si>
+  <si>
+    <t>[-0.1844271868467331]</t>
+  </si>
+  <si>
+    <t>[-0.44324710965156555]</t>
+  </si>
+  <si>
+    <t>[0.17812590301036835]</t>
+  </si>
+  <si>
+    <t>[0.3985421061515808]</t>
+  </si>
+  <si>
+    <t>[-0.09997448325157166]</t>
+  </si>
+  <si>
+    <t>[0.22303904592990875]</t>
+  </si>
+  <si>
+    <t>[0.13783912360668182]</t>
+  </si>
+  <si>
+    <t>[0.14618411660194397]</t>
+  </si>
+  <si>
+    <t>[0.025697803124785423]</t>
+  </si>
+  <si>
+    <t>[-0.14596568048000336]</t>
+  </si>
+  <si>
+    <t>[-0.1809941679239273]</t>
+  </si>
+  <si>
+    <t>[0.34881165623664856]</t>
+  </si>
+  <si>
+    <t>[-0.30697187781333923]</t>
+  </si>
+  <si>
+    <t>[-0.30402418971061707]</t>
+  </si>
+  <si>
+    <t>[0.38997381925582886]</t>
+  </si>
+  <si>
+    <t>[-0.5263776779174805]</t>
+  </si>
+  <si>
+    <t>[0.21190474927425385]</t>
+  </si>
+  <si>
+    <t>[-0.35535529255867004]</t>
+  </si>
+  <si>
+    <t>[0.20039913058280945]</t>
+  </si>
+  <si>
+    <t>[-0.509730339050293]</t>
+  </si>
+  <si>
+    <t>[0.226425439119339]</t>
+  </si>
+  <si>
+    <t>[-0.19621782004833221]</t>
+  </si>
+  <si>
+    <t>[0.3038305640220642]</t>
+  </si>
+  <si>
+    <t>[0.38681843876838684]</t>
+  </si>
+  <si>
+    <t>[-0.4008069336414337]</t>
+  </si>
+  <si>
+    <t>[-0.11984556913375854]</t>
+  </si>
+  <si>
+    <t>[0.44371497631073]</t>
+  </si>
+  <si>
+    <t>[0.05218425765633583]</t>
+  </si>
+  <si>
+    <t>[0.3858470022678375]</t>
+  </si>
+  <si>
+    <t>[-0.13933634757995605]</t>
+  </si>
+  <si>
+    <t>[-0.23024670779705048]</t>
+  </si>
+  <si>
+    <t>[0.11495266109704971]</t>
+  </si>
+  <si>
+    <t>[0.07393623888492584]</t>
+  </si>
+  <si>
+    <t>[-0.12400162220001221]</t>
+  </si>
+  <si>
+    <t>[-0.10413312166929245]</t>
+  </si>
+  <si>
+    <t>[0.07412752509117126]</t>
+  </si>
+  <si>
+    <t>[0.44596484303474426]</t>
+  </si>
+  <si>
+    <t>[0.4499332904815674]</t>
+  </si>
+  <si>
+    <t>[0.22196753323078156]</t>
+  </si>
+  <si>
+    <t>[-0.16845715045928955]</t>
+  </si>
+  <si>
+    <t>[0.050070010125637054]</t>
   </si>
   <si>
     <t>U_i</t>
@@ -475,436 +1243,1204 @@
     <t>U_o</t>
   </si>
   <si>
-    <t>[0.17297402024269104]</t>
-  </si>
-  <si>
-    <t>[-0.03337499871850014]</t>
-  </si>
-  <si>
-    <t>[0.15392357110977173]</t>
-  </si>
-  <si>
-    <t>[-0.03891570121049881]</t>
-  </si>
-  <si>
-    <t>[-0.715519368648529]</t>
-  </si>
-  <si>
-    <t>[-0.295033723115921]</t>
-  </si>
-  <si>
-    <t>[0.2449924796819687]</t>
-  </si>
-  <si>
-    <t>[0.3699665665626526]</t>
-  </si>
-  <si>
-    <t>[0.2502705156803131]</t>
-  </si>
-  <si>
-    <t>[-0.18149076402187347]</t>
-  </si>
-  <si>
-    <t>[-0.3672604262828827]</t>
-  </si>
-  <si>
-    <t>[-0.12443076819181442]</t>
-  </si>
-  <si>
-    <t>[0.522732675075531]</t>
-  </si>
-  <si>
-    <t>[-0.10704787820577621]</t>
-  </si>
-  <si>
-    <t>[-0.29103147983551025]</t>
-  </si>
-  <si>
-    <t>[0.35655346512794495]</t>
-  </si>
-  <si>
-    <t>[-0.09115970134735107]</t>
-  </si>
-  <si>
-    <t>[-0.04722736403346062]</t>
-  </si>
-  <si>
-    <t>[0.14861777424812317]</t>
-  </si>
-  <si>
-    <t>[0.44317737221717834]</t>
-  </si>
-  <si>
-    <t>[-0.09527271240949631]</t>
-  </si>
-  <si>
-    <t>[-0.15727068483829498]</t>
-  </si>
-  <si>
-    <t>[-0.1587519347667694]</t>
-  </si>
-  <si>
-    <t>[0.3065146207809448]</t>
-  </si>
-  <si>
-    <t>[-0.3417133390903473]</t>
-  </si>
-  <si>
-    <t>[0.1787775307893753]</t>
-  </si>
-  <si>
-    <t>[-0.4561336636543274]</t>
-  </si>
-  <si>
-    <t>[-0.043030500411987305]</t>
-  </si>
-  <si>
-    <t>[0.45682018995285034]</t>
-  </si>
-  <si>
-    <t>[-0.055051568895578384]</t>
-  </si>
-  <si>
-    <t>[0.03797202184796333]</t>
-  </si>
-  <si>
-    <t>[0.022666018456220627]</t>
-  </si>
-  <si>
-    <t>[-0.1155659630894661]</t>
-  </si>
-  <si>
-    <t>[0.21797482669353485]</t>
-  </si>
-  <si>
-    <t>[0.11339607834815979]</t>
-  </si>
-  <si>
-    <t>[0.07280553132295609]</t>
-  </si>
-  <si>
-    <t>[-0.26265424489974976]</t>
-  </si>
-  <si>
-    <t>[0.2824137806892395]</t>
-  </si>
-  <si>
-    <t>[0.10592132806777954]</t>
-  </si>
-  <si>
-    <t>[0.09081479161977768]</t>
-  </si>
-  <si>
-    <t>[0.2282048761844635]</t>
-  </si>
-  <si>
-    <t>[0.5090504884719849]</t>
-  </si>
-  <si>
-    <t>[-0.09403511136770248]</t>
-  </si>
-  <si>
-    <t>[0.23193229734897614]</t>
-  </si>
-  <si>
-    <t>[-0.28166741132736206]</t>
-  </si>
-  <si>
-    <t>[-0.016501406207680702]</t>
-  </si>
-  <si>
-    <t>[0.6360994577407837]</t>
-  </si>
-  <si>
-    <t>[-0.07373744994401932]</t>
-  </si>
-  <si>
-    <t>[0.2874906659126282]</t>
-  </si>
-  <si>
-    <t>[-0.007809515576809645]</t>
-  </si>
-  <si>
-    <t>[0.3357234299182892]</t>
-  </si>
-  <si>
-    <t>[0.15759147703647614]</t>
-  </si>
-  <si>
-    <t>[-0.0682699903845787]</t>
-  </si>
-  <si>
-    <t>[0.32646751403808594]</t>
-  </si>
-  <si>
-    <t>[-0.04547609016299248]</t>
-  </si>
-  <si>
-    <t>[0.038302380591630936]</t>
-  </si>
-  <si>
-    <t>[0.42076048254966736]</t>
-  </si>
-  <si>
-    <t>[-0.19031867384910583]</t>
-  </si>
-  <si>
-    <t>[-0.26907113194465637]</t>
-  </si>
-  <si>
-    <t>[0.15692605078220367]</t>
-  </si>
-  <si>
-    <t>[0.3513835668563843]</t>
-  </si>
-  <si>
-    <t>[0.0024690425489097834]</t>
-  </si>
-  <si>
-    <t>[-0.30661940574645996]</t>
-  </si>
-  <si>
-    <t>[7.596238447149517e-07]</t>
-  </si>
-  <si>
-    <t>[0.07249190658330917]</t>
-  </si>
-  <si>
-    <t>[0.07263598591089249]</t>
-  </si>
-  <si>
-    <t>[0.3230341374874115]</t>
-  </si>
-  <si>
-    <t>[0.2641240358352661]</t>
-  </si>
-  <si>
-    <t>[-0.2661042809486389]</t>
-  </si>
-  <si>
-    <t>[-0.23315639793872833]</t>
-  </si>
-  <si>
-    <t>[-0.28618669509887695]</t>
-  </si>
-  <si>
-    <t>[-0.46255820989608765]</t>
-  </si>
-  <si>
-    <t>[-0.48413488268852234]</t>
-  </si>
-  <si>
-    <t>[0.11331985890865326]</t>
-  </si>
-  <si>
-    <t>[-0.4022546410560608]</t>
-  </si>
-  <si>
-    <t>[0.08493223041296005]</t>
-  </si>
-  <si>
-    <t>[-0.05831244960427284]</t>
-  </si>
-  <si>
-    <t>[0.2857396900653839]</t>
-  </si>
-  <si>
-    <t>[-0.24354182183742523]</t>
-  </si>
-  <si>
-    <t>[0.07416502386331558]</t>
-  </si>
-  <si>
-    <t>[-0.5051751136779785]</t>
-  </si>
-  <si>
-    <t>[0.2874133586883545]</t>
-  </si>
-  <si>
-    <t>[-0.1157107725739479]</t>
-  </si>
-  <si>
-    <t>[0.2182006984949112]</t>
-  </si>
-  <si>
-    <t>[-0.5678807497024536]</t>
-  </si>
-  <si>
-    <t>[0.7060900330543518]</t>
-  </si>
-  <si>
-    <t>[-0.005636518355458975]</t>
-  </si>
-  <si>
-    <t>[-0.06486175954341888]</t>
-  </si>
-  <si>
-    <t>[0.2633146047592163]</t>
-  </si>
-  <si>
-    <t>[0.14445717632770538]</t>
-  </si>
-  <si>
-    <t>[-0.08792103081941605]</t>
-  </si>
-  <si>
-    <t>[-0.13008220493793488]</t>
-  </si>
-  <si>
-    <t>[0.19395263493061066]</t>
-  </si>
-  <si>
-    <t>[0.3011203408241272]</t>
-  </si>
-  <si>
-    <t>[0.004312918521463871]</t>
-  </si>
-  <si>
-    <t>[0.00404067849740386]</t>
-  </si>
-  <si>
-    <t>[0.25603947043418884]</t>
-  </si>
-  <si>
-    <t>[0.010149778798222542]</t>
-  </si>
-  <si>
-    <t>[0.3644586205482483]</t>
-  </si>
-  <si>
-    <t>[0.3330926299095154]</t>
-  </si>
-  <si>
-    <t>[-0.3575410842895508]</t>
-  </si>
-  <si>
-    <t>[-0.39198511838912964]</t>
-  </si>
-  <si>
-    <t>[-0.03066888079047203]</t>
-  </si>
-  <si>
-    <t>[0.3931511640548706]</t>
-  </si>
-  <si>
-    <t>[0.16666705906391144]</t>
-  </si>
-  <si>
-    <t>[-0.10323503613471985]</t>
-  </si>
-  <si>
-    <t>[-0.3676173686981201]</t>
-  </si>
-  <si>
-    <t>[-0.2279675006866455]</t>
-  </si>
-  <si>
-    <t>[0.3207266330718994]</t>
-  </si>
-  <si>
-    <t>[-0.3564622402191162]</t>
-  </si>
-  <si>
-    <t>[0.16376402974128723]</t>
-  </si>
-  <si>
-    <t>[0.3529704511165619]</t>
-  </si>
-  <si>
-    <t>[-0.29406845569610596]</t>
-  </si>
-  <si>
-    <t>[0.24805684387683868]</t>
-  </si>
-  <si>
-    <t>[-0.011539499275386333]</t>
-  </si>
-  <si>
-    <t>[-0.32797497510910034]</t>
-  </si>
-  <si>
-    <t>[-0.47918573021888733]</t>
-  </si>
-  <si>
-    <t>[-0.3055858910083771]</t>
-  </si>
-  <si>
-    <t>[-0.673675000667572]</t>
-  </si>
-  <si>
-    <t>[-0.3923221528530121]</t>
-  </si>
-  <si>
-    <t>[0.04646891728043556]</t>
-  </si>
-  <si>
-    <t>[-0.06640094518661499]</t>
-  </si>
-  <si>
-    <t>[0.09055332094430923]</t>
-  </si>
-  <si>
-    <t>[-0.11678370088338852]</t>
-  </si>
-  <si>
-    <t>[0.23692788183689117]</t>
-  </si>
-  <si>
-    <t>[0.03619625046849251]</t>
-  </si>
-  <si>
-    <t>[-0.20814676582813263]</t>
-  </si>
-  <si>
-    <t>[-0.21102826297283173]</t>
-  </si>
-  <si>
-    <t>[-0.4267221987247467]</t>
-  </si>
-  <si>
-    <t>[0.1449563354253769]</t>
-  </si>
-  <si>
-    <t>[-0.19678059220314026]</t>
-  </si>
-  <si>
-    <t>[0.002851122757419944]</t>
-  </si>
-  <si>
-    <t>[-0.03197798505425453]</t>
-  </si>
-  <si>
-    <t>[0.4102989435195923]</t>
-  </si>
-  <si>
-    <t>[0.36478275060653687]</t>
-  </si>
-  <si>
-    <t>[-0.22906950116157532]</t>
-  </si>
-  <si>
-    <t>[0.49284449219703674]</t>
-  </si>
-  <si>
-    <t>[-0.15100808441638947]</t>
-  </si>
-  <si>
-    <t>[-0.12460030615329742]</t>
-  </si>
-  <si>
-    <t>[0.1200941652059555]</t>
-  </si>
-  <si>
-    <t>[0.28526216745376587]</t>
-  </si>
-  <si>
-    <t>[-0.19849149882793427]</t>
-  </si>
-  <si>
-    <t>[0.4220142066478729]</t>
-  </si>
-  <si>
-    <t>[0.09492127597332001]</t>
+    <t>[-0.24460113048553467]</t>
+  </si>
+  <si>
+    <t>[-0.1387239247560501]</t>
+  </si>
+  <si>
+    <t>[-0.05940705165266991]</t>
+  </si>
+  <si>
+    <t>[-0.14031349122524261]</t>
+  </si>
+  <si>
+    <t>[0.04670461639761925]</t>
+  </si>
+  <si>
+    <t>[0.3848961889743805]</t>
+  </si>
+  <si>
+    <t>[0.11960301548242569]</t>
+  </si>
+  <si>
+    <t>[0.34116631746292114]</t>
+  </si>
+  <si>
+    <t>[0.3310025930404663]</t>
+  </si>
+  <si>
+    <t>[0.07779666781425476]</t>
+  </si>
+  <si>
+    <t>[0.17347779870033264]</t>
+  </si>
+  <si>
+    <t>[-0.03841351345181465]</t>
+  </si>
+  <si>
+    <t>[-0.3783454895019531]</t>
+  </si>
+  <si>
+    <t>[-0.052865371108055115]</t>
+  </si>
+  <si>
+    <t>[-0.2354920357465744]</t>
+  </si>
+  <si>
+    <t>[0.05745717138051987]</t>
+  </si>
+  <si>
+    <t>[-0.2525307238101959]</t>
+  </si>
+  <si>
+    <t>[0.039079368114471436]</t>
+  </si>
+  <si>
+    <t>[0.0025951338466256857]</t>
+  </si>
+  <si>
+    <t>[-0.0239395871758461]</t>
+  </si>
+  <si>
+    <t>[0.06659155339002609]</t>
+  </si>
+  <si>
+    <t>[-0.04311539977788925]</t>
+  </si>
+  <si>
+    <t>[0.1641523540019989]</t>
+  </si>
+  <si>
+    <t>[-0.5027682781219482]</t>
+  </si>
+  <si>
+    <t>[0.0011283608619123697]</t>
+  </si>
+  <si>
+    <t>[0.21427226066589355]</t>
+  </si>
+  <si>
+    <t>[0.24919244647026062]</t>
+  </si>
+  <si>
+    <t>[-0.04967585578560829]</t>
+  </si>
+  <si>
+    <t>[-0.1545587182044983]</t>
+  </si>
+  <si>
+    <t>[0.07183049619197845]</t>
+  </si>
+  <si>
+    <t>[-0.228733628988266]</t>
+  </si>
+  <si>
+    <t>[0.0295864325016737]</t>
+  </si>
+  <si>
+    <t>[-0.29380011558532715]</t>
+  </si>
+  <si>
+    <t>[-0.17749854922294617]</t>
+  </si>
+  <si>
+    <t>[0.3492347300052643]</t>
+  </si>
+  <si>
+    <t>[0.01523512601852417]</t>
+  </si>
+  <si>
+    <t>[0.06418401002883911]</t>
+  </si>
+  <si>
+    <t>[0.272512286901474]</t>
+  </si>
+  <si>
+    <t>[0.05186863988637924]</t>
+  </si>
+  <si>
+    <t>[-0.0517900250852108]</t>
+  </si>
+  <si>
+    <t>[-0.2644957900047302]</t>
+  </si>
+  <si>
+    <t>[-0.15586058795452118]</t>
+  </si>
+  <si>
+    <t>[0.32628005743026733]</t>
+  </si>
+  <si>
+    <t>[-0.43525901436805725]</t>
+  </si>
+  <si>
+    <t>[0.48120731115341187]</t>
+  </si>
+  <si>
+    <t>[0.08141803741455078]</t>
+  </si>
+  <si>
+    <t>[0.24097669124603271]</t>
+  </si>
+  <si>
+    <t>[0.22311994433403015]</t>
+  </si>
+  <si>
+    <t>[0.425296425819397]</t>
+  </si>
+  <si>
+    <t>[0.3619494140148163]</t>
+  </si>
+  <si>
+    <t>[-0.06195729598402977]</t>
+  </si>
+  <si>
+    <t>[-0.01360784750431776]</t>
+  </si>
+  <si>
+    <t>[-0.33231955766677856]</t>
+  </si>
+  <si>
+    <t>[0.2914960980415344]</t>
+  </si>
+  <si>
+    <t>[-0.24690450727939606]</t>
+  </si>
+  <si>
+    <t>[-0.24331915378570557]</t>
+  </si>
+  <si>
+    <t>[-0.3406887352466583]</t>
+  </si>
+  <si>
+    <t>[0.07936853170394897]</t>
+  </si>
+  <si>
+    <t>[-0.23915384709835052]</t>
+  </si>
+  <si>
+    <t>[-0.0008174754329957068]</t>
+  </si>
+  <si>
+    <t>[0.14322276413440704]</t>
+  </si>
+  <si>
+    <t>[-0.010560132563114166]</t>
+  </si>
+  <si>
+    <t>[0.09181241691112518]</t>
+  </si>
+  <si>
+    <t>[-0.029180755838751793]</t>
+  </si>
+  <si>
+    <t>[-0.07698047906160355]</t>
+  </si>
+  <si>
+    <t>[0.19068680703639984]</t>
+  </si>
+  <si>
+    <t>[0.24714896082878113]</t>
+  </si>
+  <si>
+    <t>[0.03400417044758797]</t>
+  </si>
+  <si>
+    <t>[0.13420738279819489]</t>
+  </si>
+  <si>
+    <t>[0.1592862457036972]</t>
+  </si>
+  <si>
+    <t>[0.010057549923658371]</t>
+  </si>
+  <si>
+    <t>[0.057576876133680344]</t>
+  </si>
+  <si>
+    <t>[-0.31146693229675293]</t>
+  </si>
+  <si>
+    <t>[0.49974575638771057]</t>
+  </si>
+  <si>
+    <t>[0.4604056477546692]</t>
+  </si>
+  <si>
+    <t>[-0.10836470127105713]</t>
+  </si>
+  <si>
+    <t>[0.20037348568439484]</t>
+  </si>
+  <si>
+    <t>[0.02920602262020111]</t>
+  </si>
+  <si>
+    <t>[-0.2587101459503174]</t>
+  </si>
+  <si>
+    <t>[0.1650264412164688]</t>
+  </si>
+  <si>
+    <t>[-0.5436599254608154]</t>
+  </si>
+  <si>
+    <t>[0.09868741780519485]</t>
+  </si>
+  <si>
+    <t>[0.39666104316711426]</t>
+  </si>
+  <si>
+    <t>[0.024562304839491844]</t>
+  </si>
+  <si>
+    <t>[0.1513318568468094]</t>
+  </si>
+  <si>
+    <t>[-0.06000816822052002]</t>
+  </si>
+  <si>
+    <t>[0.12786172330379486]</t>
+  </si>
+  <si>
+    <t>[0.2109445482492447]</t>
+  </si>
+  <si>
+    <t>[-0.08606710284948349]</t>
+  </si>
+  <si>
+    <t>[-0.14928248524665833]</t>
+  </si>
+  <si>
+    <t>[0.24741719663143158]</t>
+  </si>
+  <si>
+    <t>[-0.04153333231806755]</t>
+  </si>
+  <si>
+    <t>[-0.2536316514015198]</t>
+  </si>
+  <si>
+    <t>[-0.007750184275209904]</t>
+  </si>
+  <si>
+    <t>[-0.047162607312202454]</t>
+  </si>
+  <si>
+    <t>[-0.19206710159778595]</t>
+  </si>
+  <si>
+    <t>[-0.13179618120193481]</t>
+  </si>
+  <si>
+    <t>[0.08440583199262619]</t>
+  </si>
+  <si>
+    <t>[-0.3362487554550171]</t>
+  </si>
+  <si>
+    <t>[0.10527939349412918]</t>
+  </si>
+  <si>
+    <t>[-0.1480722427368164]</t>
+  </si>
+  <si>
+    <t>[0.11051549762487411]</t>
+  </si>
+  <si>
+    <t>[0.13437342643737793]</t>
+  </si>
+  <si>
+    <t>[-0.08010169118642807]</t>
+  </si>
+  <si>
+    <t>[0.23739475011825562]</t>
+  </si>
+  <si>
+    <t>[0.2257550060749054]</t>
+  </si>
+  <si>
+    <t>[0.16976748406887054]</t>
+  </si>
+  <si>
+    <t>[0.4084959030151367]</t>
+  </si>
+  <si>
+    <t>[-0.16479374468326569]</t>
+  </si>
+  <si>
+    <t>[0.09356937557458878]</t>
+  </si>
+  <si>
+    <t>[-0.0671270340681076]</t>
+  </si>
+  <si>
+    <t>[-0.11447318643331528]</t>
+  </si>
+  <si>
+    <t>[-0.2373737394809723]</t>
+  </si>
+  <si>
+    <t>[0.31562402844429016]</t>
+  </si>
+  <si>
+    <t>[0.1912115216255188]</t>
+  </si>
+  <si>
+    <t>[0.08887693285942078]</t>
+  </si>
+  <si>
+    <t>[-0.037904102355241776]</t>
+  </si>
+  <si>
+    <t>[0.30448445677757263]</t>
+  </si>
+  <si>
+    <t>[-0.020806828513741493]</t>
+  </si>
+  <si>
+    <t>[-0.024253157898783684]</t>
+  </si>
+  <si>
+    <t>[0.06323659420013428]</t>
+  </si>
+  <si>
+    <t>[0.02111152745783329]</t>
+  </si>
+  <si>
+    <t>[-0.2502143979072571]</t>
+  </si>
+  <si>
+    <t>[-0.09724906831979752]</t>
+  </si>
+  <si>
+    <t>[-0.296164333820343]</t>
+  </si>
+  <si>
+    <t>[-0.41195231676101685]</t>
+  </si>
+  <si>
+    <t>[-0.29729172587394714]</t>
+  </si>
+  <si>
+    <t>[-0.245750293135643]</t>
+  </si>
+  <si>
+    <t>[-0.24526874721050262]</t>
+  </si>
+  <si>
+    <t>[-0.13757383823394775]</t>
+  </si>
+  <si>
+    <t>[-0.17401428520679474]</t>
+  </si>
+  <si>
+    <t>[-0.011666908860206604]</t>
+  </si>
+  <si>
+    <t>[0.43283095955848694]</t>
+  </si>
+  <si>
+    <t>[-0.22963441908359528]</t>
+  </si>
+  <si>
+    <t>[-0.14267313480377197]</t>
+  </si>
+  <si>
+    <t>[-0.1430724710226059]</t>
+  </si>
+  <si>
+    <t>[-0.06796634197235107]</t>
+  </si>
+  <si>
+    <t>[-0.4115879535675049]</t>
+  </si>
+  <si>
+    <t>[0.39224961400032043]</t>
+  </si>
+  <si>
+    <t>[-0.016846448183059692]</t>
+  </si>
+  <si>
+    <t>[0.01123009156435728]</t>
+  </si>
+  <si>
+    <t>[-0.04945259541273117]</t>
+  </si>
+  <si>
+    <t>[-0.06348549574613571]</t>
+  </si>
+  <si>
+    <t>[0.1418745219707489]</t>
+  </si>
+  <si>
+    <t>[0.254952996969223]</t>
+  </si>
+  <si>
+    <t>[-0.05166340246796608]</t>
+  </si>
+  <si>
+    <t>[-0.16756562888622284]</t>
+  </si>
+  <si>
+    <t>[-0.20131473243236542]</t>
+  </si>
+  <si>
+    <t>[-0.13203774392604828]</t>
+  </si>
+  <si>
+    <t>[-0.03650376573204994]</t>
+  </si>
+  <si>
+    <t>[-0.31383585929870605]</t>
+  </si>
+  <si>
+    <t>[-0.11629761755466461]</t>
+  </si>
+  <si>
+    <t>[0.2077629119157791]</t>
+  </si>
+  <si>
+    <t>[-0.044155724346637726]</t>
+  </si>
+  <si>
+    <t>[-0.45866677165031433]</t>
+  </si>
+  <si>
+    <t>[-0.35649144649505615]</t>
+  </si>
+  <si>
+    <t>[0.047573693096637726]</t>
+  </si>
+  <si>
+    <t>[-0.26502686738967896]</t>
+  </si>
+  <si>
+    <t>[0.2009245902299881]</t>
+  </si>
+  <si>
+    <t>[-0.3368400037288666]</t>
+  </si>
+  <si>
+    <t>[-0.3396594226360321]</t>
+  </si>
+  <si>
+    <t>[0.11736153811216354]</t>
+  </si>
+  <si>
+    <t>[0.21853990852832794]</t>
+  </si>
+  <si>
+    <t>[-0.28836339712142944]</t>
+  </si>
+  <si>
+    <t>[0.3576464056968689]</t>
+  </si>
+  <si>
+    <t>[0.27980366349220276]</t>
+  </si>
+  <si>
+    <t>[0.39129915833473206]</t>
+  </si>
+  <si>
+    <t>[0.3900949954986572]</t>
+  </si>
+  <si>
+    <t>[0.4816923141479492]</t>
+  </si>
+  <si>
+    <t>[0.014216278679668903]</t>
+  </si>
+  <si>
+    <t>[0.07776960730552673]</t>
+  </si>
+  <si>
+    <t>[0.07773607969284058]</t>
+  </si>
+  <si>
+    <t>[0.11316627264022827]</t>
+  </si>
+  <si>
+    <t>[0.2239205688238144]</t>
+  </si>
+  <si>
+    <t>[-0.12569786608219147]</t>
+  </si>
+  <si>
+    <t>[-0.1577656865119934]</t>
+  </si>
+  <si>
+    <t>[-0.14963556826114655]</t>
+  </si>
+  <si>
+    <t>[-0.13728250563144684]</t>
+  </si>
+  <si>
+    <t>[-0.35097452998161316]</t>
+  </si>
+  <si>
+    <t>[-0.007934896275401115]</t>
+  </si>
+  <si>
+    <t>[0.005929930135607719]</t>
+  </si>
+  <si>
+    <t>[0.04811583459377289]</t>
+  </si>
+  <si>
+    <t>[-0.17751817405223846]</t>
+  </si>
+  <si>
+    <t>[-0.3233514130115509]</t>
+  </si>
+  <si>
+    <t>[-0.4464818835258484]</t>
+  </si>
+  <si>
+    <t>[0.12148083746433258]</t>
+  </si>
+  <si>
+    <t>[0.13001088798046112]</t>
+  </si>
+  <si>
+    <t>[0.3512870669364929]</t>
+  </si>
+  <si>
+    <t>[-0.15864649415016174]</t>
+  </si>
+  <si>
+    <t>[-0.1598621904850006]</t>
+  </si>
+  <si>
+    <t>[0.007802234962582588]</t>
+  </si>
+  <si>
+    <t>[-0.0035023647360503674]</t>
+  </si>
+  <si>
+    <t>[-0.03856439143419266]</t>
+  </si>
+  <si>
+    <t>[0.18180213868618011]</t>
+  </si>
+  <si>
+    <t>[0.03495935723185539]</t>
+  </si>
+  <si>
+    <t>[0.21801809966564178]</t>
+  </si>
+  <si>
+    <t>[0.07246718555688858]</t>
+  </si>
+  <si>
+    <t>[0.288026362657547]</t>
+  </si>
+  <si>
+    <t>[0.1056109368801117]</t>
+  </si>
+  <si>
+    <t>[0.22040823101997375]</t>
+  </si>
+  <si>
+    <t>[-0.19677194952964783]</t>
+  </si>
+  <si>
+    <t>[-0.005155412945896387]</t>
+  </si>
+  <si>
+    <t>[0.06515190005302429]</t>
+  </si>
+  <si>
+    <t>[0.2635877728462219]</t>
+  </si>
+  <si>
+    <t>[0.10761015862226486]</t>
+  </si>
+  <si>
+    <t>[0.05962296947836876]</t>
+  </si>
+  <si>
+    <t>[0.09261097759008408]</t>
+  </si>
+  <si>
+    <t>[0.36159107089042664]</t>
+  </si>
+  <si>
+    <t>[0.2855135500431061]</t>
+  </si>
+  <si>
+    <t>[0.12984269857406616]</t>
+  </si>
+  <si>
+    <t>[0.22861041128635406]</t>
+  </si>
+  <si>
+    <t>[0.21560877561569214]</t>
+  </si>
+  <si>
+    <t>[-0.2457808256149292]</t>
+  </si>
+  <si>
+    <t>[0.0026323513593524694]</t>
+  </si>
+  <si>
+    <t>[-0.26937606930732727]</t>
+  </si>
+  <si>
+    <t>[0.2740419805049896]</t>
+  </si>
+  <si>
+    <t>[-0.2809225916862488]</t>
+  </si>
+  <si>
+    <t>[0.01770566590130329]</t>
+  </si>
+  <si>
+    <t>[-0.248567596077919]</t>
+  </si>
+  <si>
+    <t>[-0.011045818217098713]</t>
+  </si>
+  <si>
+    <t>[0.1319005936384201]</t>
+  </si>
+  <si>
+    <t>[-0.1562509387731552]</t>
+  </si>
+  <si>
+    <t>[-0.048139482736587524]</t>
+  </si>
+  <si>
+    <t>[-0.13665321469306946]</t>
+  </si>
+  <si>
+    <t>[-0.22325266897678375]</t>
+  </si>
+  <si>
+    <t>[0.16787831485271454]</t>
+  </si>
+  <si>
+    <t>[0.17583569884300232]</t>
+  </si>
+  <si>
+    <t>[0.30871808528900146]</t>
+  </si>
+  <si>
+    <t>[-0.29204291105270386]</t>
+  </si>
+  <si>
+    <t>[-0.16286437213420868]</t>
+  </si>
+  <si>
+    <t>[-0.03097159042954445]</t>
+  </si>
+  <si>
+    <t>[0.10047031193971634]</t>
+  </si>
+  <si>
+    <t>[-0.2912140190601349]</t>
+  </si>
+  <si>
+    <t>[0.43887293338775635]</t>
+  </si>
+  <si>
+    <t>[0.2922910153865814]</t>
+  </si>
+  <si>
+    <t>[0.06518568098545074]</t>
+  </si>
+  <si>
+    <t>[0.22662928700447083]</t>
+  </si>
+  <si>
+    <t>[-0.32829755544662476]</t>
+  </si>
+  <si>
+    <t>[-0.12649816274642944]</t>
+  </si>
+  <si>
+    <t>[0.32390296459198]</t>
+  </si>
+  <si>
+    <t>[-0.01499884482473135]</t>
+  </si>
+  <si>
+    <t>[0.003833353752270341]</t>
+  </si>
+  <si>
+    <t>[-0.004673771094530821]</t>
+  </si>
+  <si>
+    <t>[-0.04949774593114853]</t>
+  </si>
+  <si>
+    <t>[-0.3620567321777344]</t>
+  </si>
+  <si>
+    <t>[-0.38043445348739624]</t>
+  </si>
+  <si>
+    <t>[0.00538206659257412]</t>
+  </si>
+  <si>
+    <t>[-0.4647497236728668]</t>
+  </si>
+  <si>
+    <t>[-0.2796500325202942]</t>
+  </si>
+  <si>
+    <t>[-0.13355158269405365]</t>
+  </si>
+  <si>
+    <t>[-0.06023842468857765]</t>
+  </si>
+  <si>
+    <t>[0.08301634341478348]</t>
+  </si>
+  <si>
+    <t>[-0.03724277392029762]</t>
+  </si>
+  <si>
+    <t>[-0.26303139328956604]</t>
+  </si>
+  <si>
+    <t>[0.47188085317611694]</t>
+  </si>
+  <si>
+    <t>[-0.10183970630168915]</t>
+  </si>
+  <si>
+    <t>[0.32512718439102173]</t>
+  </si>
+  <si>
+    <t>[-0.2454816848039627]</t>
+  </si>
+  <si>
+    <t>[0.30658072233200073]</t>
+  </si>
+  <si>
+    <t>[0.16917559504508972]</t>
+  </si>
+  <si>
+    <t>[-0.17561891674995422]</t>
+  </si>
+  <si>
+    <t>[-0.2875666916370392]</t>
+  </si>
+  <si>
+    <t>[0.10725536942481995]</t>
+  </si>
+  <si>
+    <t>[0.027296148240566254]</t>
+  </si>
+  <si>
+    <t>[0.06648118048906326]</t>
+  </si>
+  <si>
+    <t>[-0.5229987502098083]</t>
+  </si>
+  <si>
+    <t>[-0.24521762132644653]</t>
+  </si>
+  <si>
+    <t>[-0.49690017104148865]</t>
+  </si>
+  <si>
+    <t>[0.08944513648748398]</t>
+  </si>
+  <si>
+    <t>[-0.32500845193862915]</t>
+  </si>
+  <si>
+    <t>[0.06570246070623398]</t>
+  </si>
+  <si>
+    <t>[-0.20096756517887115]</t>
+  </si>
+  <si>
+    <t>[0.12140746414661407]</t>
+  </si>
+  <si>
+    <t>[-0.1547316461801529]</t>
+  </si>
+  <si>
+    <t>[-0.1352081596851349]</t>
+  </si>
+  <si>
+    <t>[0.09803475439548492]</t>
+  </si>
+  <si>
+    <t>[-0.09646766632795334]</t>
+  </si>
+  <si>
+    <t>[-0.2880992591381073]</t>
+  </si>
+  <si>
+    <t>[0.30365967750549316]</t>
+  </si>
+  <si>
+    <t>[-0.13698485493659973]</t>
+  </si>
+  <si>
+    <t>[-0.2616863250732422]</t>
+  </si>
+  <si>
+    <t>[0.0883830338716507]</t>
+  </si>
+  <si>
+    <t>[0.19785593450069427]</t>
+  </si>
+  <si>
+    <t>[-0.1289120465517044]</t>
+  </si>
+  <si>
+    <t>[-0.004315375350415707]</t>
+  </si>
+  <si>
+    <t>[0.2288268357515335]</t>
+  </si>
+  <si>
+    <t>[0.1945706456899643]</t>
+  </si>
+  <si>
+    <t>[0.5178763270378113]</t>
+  </si>
+  <si>
+    <t>[0.11438284069299698]</t>
+  </si>
+  <si>
+    <t>[0.20346903800964355]</t>
+  </si>
+  <si>
+    <t>[-0.03169979155063629]</t>
+  </si>
+  <si>
+    <t>[0.1876019686460495]</t>
+  </si>
+  <si>
+    <t>[0.04705791547894478]</t>
+  </si>
+  <si>
+    <t>[0.3227374851703644]</t>
+  </si>
+  <si>
+    <t>[-0.30497878789901733]</t>
+  </si>
+  <si>
+    <t>[0.04129749909043312]</t>
+  </si>
+  <si>
+    <t>[-0.3414418697357178]</t>
+  </si>
+  <si>
+    <t>[0.653174877166748]</t>
+  </si>
+  <si>
+    <t>[-0.289730429649353]</t>
+  </si>
+  <si>
+    <t>[0.03566260263323784]</t>
+  </si>
+  <si>
+    <t>[-0.028058011084794998]</t>
+  </si>
+  <si>
+    <t>[-0.3299318253993988]</t>
+  </si>
+  <si>
+    <t>[0.02255890518426895]</t>
+  </si>
+  <si>
+    <t>[-0.1393498331308365]</t>
+  </si>
+  <si>
+    <t>[0.020461799576878548]</t>
+  </si>
+  <si>
+    <t>[0.004158602561801672]</t>
+  </si>
+  <si>
+    <t>[0.1645614057779312]</t>
+  </si>
+  <si>
+    <t>[0.19769662618637085]</t>
+  </si>
+  <si>
+    <t>[0.12630948424339294]</t>
+  </si>
+  <si>
+    <t>[0.03544308990240097]</t>
+  </si>
+  <si>
+    <t>[-0.21507489681243896]</t>
+  </si>
+  <si>
+    <t>[0.2102348506450653]</t>
+  </si>
+  <si>
+    <t>[-0.24426767230033875]</t>
+  </si>
+  <si>
+    <t>[0.21480228006839752]</t>
+  </si>
+  <si>
+    <t>[0.10105054825544357]</t>
+  </si>
+  <si>
+    <t>[0.22309666872024536]</t>
+  </si>
+  <si>
+    <t>[0.26394057273864746]</t>
+  </si>
+  <si>
+    <t>[0.18584011495113373]</t>
+  </si>
+  <si>
+    <t>[0.060619957745075226]</t>
+  </si>
+  <si>
+    <t>[-0.02622055634856224]</t>
+  </si>
+  <si>
+    <t>[0.40082848072052]</t>
+  </si>
+  <si>
+    <t>[-0.26074308156967163]</t>
+  </si>
+  <si>
+    <t>[-0.05445483699440956]</t>
+  </si>
+  <si>
+    <t>[-0.07057245820760727]</t>
+  </si>
+  <si>
+    <t>[-0.07113540917634964]</t>
+  </si>
+  <si>
+    <t>[-0.13153308629989624]</t>
+  </si>
+  <si>
+    <t>[-0.3207782804965973]</t>
+  </si>
+  <si>
+    <t>[-0.3979300558567047]</t>
+  </si>
+  <si>
+    <t>[-0.1267063170671463]</t>
+  </si>
+  <si>
+    <t>[0.08899030089378357]</t>
+  </si>
+  <si>
+    <t>[0.145854651927948]</t>
+  </si>
+  <si>
+    <t>[0.09207851439714432]</t>
+  </si>
+  <si>
+    <t>[0.13266806304454803]</t>
+  </si>
+  <si>
+    <t>[-0.3920240104198456]</t>
+  </si>
+  <si>
+    <t>[0.06694429367780685]</t>
+  </si>
+  <si>
+    <t>[0.21447142958641052]</t>
+  </si>
+  <si>
+    <t>[0.2728004455566406]</t>
+  </si>
+  <si>
+    <t>[-0.22374902665615082]</t>
+  </si>
+  <si>
+    <t>[0.12653586268424988]</t>
+  </si>
+  <si>
+    <t>[-0.10536087304353714]</t>
+  </si>
+  <si>
+    <t>[-0.3350944221019745]</t>
+  </si>
+  <si>
+    <t>[-0.12014491111040115]</t>
+  </si>
+  <si>
+    <t>[-0.23510533571243286]</t>
+  </si>
+  <si>
+    <t>[0.12392458319664001]</t>
+  </si>
+  <si>
+    <t>[0.473674476146698]</t>
+  </si>
+  <si>
+    <t>[-0.33662235736846924]</t>
+  </si>
+  <si>
+    <t>[-0.5023331046104431]</t>
+  </si>
+  <si>
+    <t>[-0.18278631567955017]</t>
+  </si>
+  <si>
+    <t>[0.23213185369968414]</t>
+  </si>
+  <si>
+    <t>[-0.20367038249969482]</t>
+  </si>
+  <si>
+    <t>[0.1673271507024765]</t>
+  </si>
+  <si>
+    <t>[-0.17548437416553497]</t>
+  </si>
+  <si>
+    <t>[0.4430771768093109]</t>
+  </si>
+  <si>
+    <t>[-0.15561503171920776]</t>
+  </si>
+  <si>
+    <t>[-0.3881414234638214]</t>
+  </si>
+  <si>
+    <t>[-0.2607935667037964]</t>
+  </si>
+  <si>
+    <t>[-0.21601393818855286]</t>
+  </si>
+  <si>
+    <t>[-0.09968527406454086]</t>
+  </si>
+  <si>
+    <t>[0.22315147519111633]</t>
+  </si>
+  <si>
+    <t>[-0.2183077335357666]</t>
+  </si>
+  <si>
+    <t>[-0.05255262926220894]</t>
+  </si>
+  <si>
+    <t>[-0.0198558010160923]</t>
+  </si>
+  <si>
+    <t>[-0.20471526682376862]</t>
+  </si>
+  <si>
+    <t>[0.1979862004518509]</t>
+  </si>
+  <si>
+    <t>[-0.18471571803092957]</t>
+  </si>
+  <si>
+    <t>[-0.3976232409477234]</t>
+  </si>
+  <si>
+    <t>[-0.05345173925161362]</t>
+  </si>
+  <si>
+    <t>[-0.2594764828681946]</t>
+  </si>
+  <si>
+    <t>[-0.115287184715271]</t>
+  </si>
+  <si>
+    <t>[-0.3222377300262451]</t>
+  </si>
+  <si>
+    <t>[-0.44647297263145447]</t>
+  </si>
+  <si>
+    <t>[-0.11047542095184326]</t>
+  </si>
+  <si>
+    <t>[0.14222213625907898]</t>
+  </si>
+  <si>
+    <t>[-0.1077878549695015]</t>
+  </si>
+  <si>
+    <t>[0.0709952786564827]</t>
+  </si>
+  <si>
+    <t>[0.2864857316017151]</t>
+  </si>
+  <si>
+    <t>[0.0877593457698822]</t>
+  </si>
+  <si>
+    <t>[-0.23362067341804504]</t>
+  </si>
+  <si>
+    <t>[0.06953742355108261]</t>
+  </si>
+  <si>
+    <t>[-0.08218047022819519]</t>
+  </si>
+  <si>
+    <t>[-0.12413626909255981]</t>
+  </si>
+  <si>
+    <t>[0.0029222238808870316]</t>
+  </si>
+  <si>
+    <t>[-0.16855637729167938]</t>
+  </si>
+  <si>
+    <t>[0.24515631794929504]</t>
+  </si>
+  <si>
+    <t>[0.3115230202674866]</t>
+  </si>
+  <si>
+    <t>[-0.36348339915275574]</t>
+  </si>
+  <si>
+    <t>[-0.1262899935245514]</t>
+  </si>
+  <si>
+    <t>[-0.45006027817726135]</t>
+  </si>
+  <si>
+    <t>[0.17017927765846252]</t>
+  </si>
+  <si>
+    <t>[-0.21380868554115295]</t>
+  </si>
+  <si>
+    <t>[-0.12092281877994537]</t>
+  </si>
+  <si>
+    <t>[0.17117638885974884]</t>
+  </si>
+  <si>
+    <t>[0.4961288273334503]</t>
+  </si>
+  <si>
+    <t>[-0.3400631248950958]</t>
+  </si>
+  <si>
+    <t>[-0.12939459085464478]</t>
+  </si>
+  <si>
+    <t>[-0.2651432752609253]</t>
+  </si>
+  <si>
+    <t>[-0.514746367931366]</t>
+  </si>
+  <si>
+    <t>[-0.14780692756175995]</t>
+  </si>
+  <si>
+    <t>[0.07569831609725952]</t>
+  </si>
+  <si>
+    <t>[0.01646593026816845]</t>
   </si>
   <si>
     <t>b_i</t>
@@ -919,76 +2455,124 @@
     <t>b_o</t>
   </si>
   <si>
-    <t>[-0.27495378255844116]</t>
-  </si>
-  <si>
-    <t>[1.2546658515930176]</t>
-  </si>
-  <si>
-    <t>[-0.27699217200279236]</t>
-  </si>
-  <si>
-    <t>[-0.10498876869678497]</t>
-  </si>
-  <si>
-    <t>[0.2647646367549896]</t>
-  </si>
-  <si>
-    <t>[1.216995120048523]</t>
-  </si>
-  <si>
-    <t>[-0.29191985726356506]</t>
-  </si>
-  <si>
-    <t>[-0.09034185856580734]</t>
-  </si>
-  <si>
-    <t>[-0.26314041018486023]</t>
-  </si>
-  <si>
-    <t>[1.2843601703643799]</t>
-  </si>
-  <si>
-    <t>[0.2555502951145172]</t>
-  </si>
-  <si>
-    <t>[0.10313352197408676]</t>
-  </si>
-  <si>
-    <t>[-0.27599141001701355]</t>
-  </si>
-  <si>
-    <t>[1.277335286140442]</t>
-  </si>
-  <si>
-    <t>[0.2812480926513672]</t>
-  </si>
-  <si>
-    <t>[-0.11188569664955139]</t>
-  </si>
-  <si>
-    <t>[0.2327556610107422]</t>
-  </si>
-  <si>
-    <t>[1.2370189428329468]</t>
-  </si>
-  <si>
-    <t>[-0.21559679508209229]</t>
-  </si>
-  <si>
-    <t>[0.10370656102895737]</t>
-  </si>
-  <si>
-    <t>[0.30330032110214233]</t>
-  </si>
-  <si>
-    <t>[1.2759028673171997]</t>
-  </si>
-  <si>
-    <t>[0.3085442781448364]</t>
-  </si>
-  <si>
-    <t>[0.10987097024917603]</t>
+    <t>[-0.20022019743919373]</t>
+  </si>
+  <si>
+    <t>[1.1846191883087158]</t>
+  </si>
+  <si>
+    <t>[0.19057078659534454]</t>
+  </si>
+  <si>
+    <t>[-0.18473666906356812]</t>
+  </si>
+  <si>
+    <t>[0.24836786091327667]</t>
+  </si>
+  <si>
+    <t>[1.2527669668197632]</t>
+  </si>
+  <si>
+    <t>[0.24844048917293549]</t>
+  </si>
+  <si>
+    <t>[0.25180748105049133]</t>
+  </si>
+  <si>
+    <t>[0.23535095155239105]</t>
+  </si>
+  <si>
+    <t>[1.2197291851043701]</t>
+  </si>
+  <si>
+    <t>[0.23778913915157318]</t>
+  </si>
+  <si>
+    <t>[0.1661897450685501]</t>
+  </si>
+  <si>
+    <t>[-0.23750905692577362]</t>
+  </si>
+  <si>
+    <t>[1.231250286102295]</t>
+  </si>
+  <si>
+    <t>[-0.2368522584438324]</t>
+  </si>
+  <si>
+    <t>[-0.1584121286869049]</t>
+  </si>
+  <si>
+    <t>[-0.2564431428909302]</t>
+  </si>
+  <si>
+    <t>[1.2623417377471924]</t>
+  </si>
+  <si>
+    <t>[-0.25590863823890686]</t>
+  </si>
+  <si>
+    <t>[0.1885593682527542]</t>
+  </si>
+  <si>
+    <t>[-0.10948582738637924]</t>
+  </si>
+  <si>
+    <t>[1.1516869068145752]</t>
+  </si>
+  <si>
+    <t>[0.13837939500808716]</t>
+  </si>
+  <si>
+    <t>[-0.15333305299282074]</t>
+  </si>
+  <si>
+    <t>[-0.2723906338214874]</t>
+  </si>
+  <si>
+    <t>[1.2733746767044067]</t>
+  </si>
+  <si>
+    <t>[0.27846336364746094]</t>
+  </si>
+  <si>
+    <t>[0.26739421486854553]</t>
+  </si>
+  <si>
+    <t>[-0.13261157274246216]</t>
+  </si>
+  <si>
+    <t>[1.1521960496902466]</t>
+  </si>
+  <si>
+    <t>[-0.13427188992500305]</t>
+  </si>
+  <si>
+    <t>[0.12625852227210999]</t>
+  </si>
+  <si>
+    <t>[-0.25897449254989624]</t>
+  </si>
+  <si>
+    <t>[1.2596200704574585]</t>
+  </si>
+  <si>
+    <t>[0.25944027304649353]</t>
+  </si>
+  <si>
+    <t>[0.22405515611171722]</t>
+  </si>
+  <si>
+    <t>[0.19540946185588837]</t>
+  </si>
+  <si>
+    <t>[1.1831365823745728]</t>
+  </si>
+  <si>
+    <t>[-0.19177696108818054]</t>
+  </si>
+  <si>
+    <t>[0.18252816796302795]</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +2921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,6 +3553,1094 @@
       </c>
       <c r="E37" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>222</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>232</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" t="s">
+        <v>270</v>
+      </c>
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" t="s">
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" t="s">
+        <v>282</v>
+      </c>
+      <c r="E71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" t="s">
+        <v>294</v>
+      </c>
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>340</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" t="s">
+        <v>345</v>
+      </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" t="s">
+        <v>349</v>
+      </c>
+      <c r="D88" t="s">
+        <v>350</v>
+      </c>
+      <c r="E88" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>354</v>
+      </c>
+      <c r="E89" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" t="s">
+        <v>357</v>
+      </c>
+      <c r="D90" t="s">
+        <v>358</v>
+      </c>
+      <c r="E90" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>362</v>
+      </c>
+      <c r="E91" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" t="s">
+        <v>366</v>
+      </c>
+      <c r="E92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" t="s">
+        <v>373</v>
+      </c>
+      <c r="D94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="E101" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +4654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1992,16 +4664,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>404</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>406</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2009,16 +4681,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>410</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2026,16 +4698,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>414</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2043,16 +4715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2060,16 +4732,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>421</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>422</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2077,16 +4749,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>426</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2094,16 +4766,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2111,16 +4783,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>434</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2128,16 +4800,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>437</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2145,16 +4817,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>441</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>442</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2162,16 +4834,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>446</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2179,16 +4851,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>448</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>450</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2196,16 +4868,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>452</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>454</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2213,16 +4885,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>458</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2230,16 +4902,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>460</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>462</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2247,16 +4919,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>466</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2264,16 +4936,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2281,16 +4953,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>472</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>474</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2298,16 +4970,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>476</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>477</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2315,16 +4987,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>482</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2332,16 +5004,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>484</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>486</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2349,16 +5021,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>488</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>489</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>490</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2366,16 +5038,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>492</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2383,16 +5055,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>497</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>498</v>
       </c>
       <c r="E24" t="s">
-        <v>243</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2400,16 +5072,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>500</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>501</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>502</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2417,16 +5089,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>504</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>505</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>506</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2434,16 +5106,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>509</v>
       </c>
       <c r="D27" t="s">
-        <v>254</v>
+        <v>510</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2451,16 +5123,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2468,16 +5140,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>516</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>517</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>518</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2485,16 +5157,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>520</v>
       </c>
       <c r="C30" t="s">
-        <v>265</v>
+        <v>521</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2502,16 +5174,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>524</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>525</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>526</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2519,16 +5191,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>528</v>
       </c>
       <c r="C32" t="s">
-        <v>273</v>
+        <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>274</v>
+        <v>530</v>
       </c>
       <c r="E32" t="s">
-        <v>275</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2536,16 +5208,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>533</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2553,16 +5225,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>536</v>
       </c>
       <c r="C34" t="s">
-        <v>281</v>
+        <v>537</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>538</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2570,16 +5242,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>284</v>
+        <v>540</v>
       </c>
       <c r="C35" t="s">
-        <v>285</v>
+        <v>541</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>542</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2587,16 +5259,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>544</v>
       </c>
       <c r="C36" t="s">
-        <v>289</v>
+        <v>545</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>546</v>
       </c>
       <c r="E36" t="s">
-        <v>291</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2604,16 +5276,1104 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>292</v>
+        <v>548</v>
       </c>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>549</v>
       </c>
       <c r="D37" t="s">
-        <v>294</v>
+        <v>550</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>552</v>
+      </c>
+      <c r="C38" t="s">
+        <v>553</v>
+      </c>
+      <c r="D38" t="s">
+        <v>554</v>
+      </c>
+      <c r="E38" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>556</v>
+      </c>
+      <c r="C39" t="s">
+        <v>557</v>
+      </c>
+      <c r="D39" t="s">
+        <v>558</v>
+      </c>
+      <c r="E39" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+      <c r="C40" t="s">
+        <v>561</v>
+      </c>
+      <c r="D40" t="s">
+        <v>562</v>
+      </c>
+      <c r="E40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" t="s">
+        <v>565</v>
+      </c>
+      <c r="D41" t="s">
+        <v>566</v>
+      </c>
+      <c r="E41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" t="s">
+        <v>570</v>
+      </c>
+      <c r="E42" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>572</v>
+      </c>
+      <c r="C43" t="s">
+        <v>573</v>
+      </c>
+      <c r="D43" t="s">
+        <v>574</v>
+      </c>
+      <c r="E43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="C44" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" t="s">
+        <v>578</v>
+      </c>
+      <c r="E44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" t="s">
+        <v>581</v>
+      </c>
+      <c r="D45" t="s">
+        <v>582</v>
+      </c>
+      <c r="E45" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>584</v>
+      </c>
+      <c r="C46" t="s">
+        <v>585</v>
+      </c>
+      <c r="D46" t="s">
+        <v>586</v>
+      </c>
+      <c r="E46" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>588</v>
+      </c>
+      <c r="C47" t="s">
+        <v>589</v>
+      </c>
+      <c r="D47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E47" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>592</v>
+      </c>
+      <c r="C48" t="s">
+        <v>593</v>
+      </c>
+      <c r="D48" t="s">
+        <v>594</v>
+      </c>
+      <c r="E48" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>596</v>
+      </c>
+      <c r="C49" t="s">
+        <v>597</v>
+      </c>
+      <c r="D49" t="s">
+        <v>598</v>
+      </c>
+      <c r="E49" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>600</v>
+      </c>
+      <c r="C50" t="s">
+        <v>601</v>
+      </c>
+      <c r="D50" t="s">
+        <v>602</v>
+      </c>
+      <c r="E50" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>604</v>
+      </c>
+      <c r="C51" t="s">
+        <v>605</v>
+      </c>
+      <c r="D51" t="s">
+        <v>606</v>
+      </c>
+      <c r="E51" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>608</v>
+      </c>
+      <c r="C52" t="s">
+        <v>609</v>
+      </c>
+      <c r="D52" t="s">
+        <v>610</v>
+      </c>
+      <c r="E52" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>612</v>
+      </c>
+      <c r="C53" t="s">
+        <v>613</v>
+      </c>
+      <c r="D53" t="s">
+        <v>614</v>
+      </c>
+      <c r="E53" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>616</v>
+      </c>
+      <c r="C54" t="s">
+        <v>617</v>
+      </c>
+      <c r="D54" t="s">
+        <v>618</v>
+      </c>
+      <c r="E54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>620</v>
+      </c>
+      <c r="C55" t="s">
+        <v>621</v>
+      </c>
+      <c r="D55" t="s">
+        <v>622</v>
+      </c>
+      <c r="E55" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>624</v>
+      </c>
+      <c r="C56" t="s">
+        <v>625</v>
+      </c>
+      <c r="D56" t="s">
+        <v>626</v>
+      </c>
+      <c r="E56" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>628</v>
+      </c>
+      <c r="C57" t="s">
+        <v>629</v>
+      </c>
+      <c r="D57" t="s">
+        <v>630</v>
+      </c>
+      <c r="E57" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>632</v>
+      </c>
+      <c r="C58" t="s">
+        <v>633</v>
+      </c>
+      <c r="D58" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>636</v>
+      </c>
+      <c r="C59" t="s">
+        <v>637</v>
+      </c>
+      <c r="D59" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>640</v>
+      </c>
+      <c r="C60" t="s">
+        <v>641</v>
+      </c>
+      <c r="D60" t="s">
+        <v>642</v>
+      </c>
+      <c r="E60" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>644</v>
+      </c>
+      <c r="C61" t="s">
+        <v>645</v>
+      </c>
+      <c r="D61" t="s">
+        <v>646</v>
+      </c>
+      <c r="E61" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>648</v>
+      </c>
+      <c r="C62" t="s">
+        <v>649</v>
+      </c>
+      <c r="D62" t="s">
+        <v>650</v>
+      </c>
+      <c r="E62" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>652</v>
+      </c>
+      <c r="C63" t="s">
+        <v>653</v>
+      </c>
+      <c r="D63" t="s">
+        <v>654</v>
+      </c>
+      <c r="E63" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>656</v>
+      </c>
+      <c r="C64" t="s">
+        <v>657</v>
+      </c>
+      <c r="D64" t="s">
+        <v>658</v>
+      </c>
+      <c r="E64" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>660</v>
+      </c>
+      <c r="C65" t="s">
+        <v>661</v>
+      </c>
+      <c r="D65" t="s">
+        <v>662</v>
+      </c>
+      <c r="E65" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>664</v>
+      </c>
+      <c r="C66" t="s">
+        <v>665</v>
+      </c>
+      <c r="D66" t="s">
+        <v>666</v>
+      </c>
+      <c r="E66" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>668</v>
+      </c>
+      <c r="C67" t="s">
+        <v>669</v>
+      </c>
+      <c r="D67" t="s">
+        <v>670</v>
+      </c>
+      <c r="E67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>672</v>
+      </c>
+      <c r="C68" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" t="s">
+        <v>674</v>
+      </c>
+      <c r="E68" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" t="s">
+        <v>677</v>
+      </c>
+      <c r="D69" t="s">
+        <v>678</v>
+      </c>
+      <c r="E69" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>680</v>
+      </c>
+      <c r="C70" t="s">
+        <v>681</v>
+      </c>
+      <c r="D70" t="s">
+        <v>682</v>
+      </c>
+      <c r="E70" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>684</v>
+      </c>
+      <c r="C71" t="s">
+        <v>685</v>
+      </c>
+      <c r="D71" t="s">
+        <v>686</v>
+      </c>
+      <c r="E71" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>688</v>
+      </c>
+      <c r="C72" t="s">
+        <v>689</v>
+      </c>
+      <c r="D72" t="s">
+        <v>690</v>
+      </c>
+      <c r="E72" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>692</v>
+      </c>
+      <c r="C73" t="s">
+        <v>693</v>
+      </c>
+      <c r="D73" t="s">
+        <v>694</v>
+      </c>
+      <c r="E73" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>696</v>
+      </c>
+      <c r="C74" t="s">
+        <v>697</v>
+      </c>
+      <c r="D74" t="s">
+        <v>698</v>
+      </c>
+      <c r="E74" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>700</v>
+      </c>
+      <c r="C75" t="s">
+        <v>701</v>
+      </c>
+      <c r="D75" t="s">
+        <v>702</v>
+      </c>
+      <c r="E75" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>704</v>
+      </c>
+      <c r="C76" t="s">
+        <v>705</v>
+      </c>
+      <c r="D76" t="s">
+        <v>706</v>
+      </c>
+      <c r="E76" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>708</v>
+      </c>
+      <c r="C77" t="s">
+        <v>709</v>
+      </c>
+      <c r="D77" t="s">
+        <v>710</v>
+      </c>
+      <c r="E77" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" t="s">
+        <v>713</v>
+      </c>
+      <c r="D78" t="s">
+        <v>714</v>
+      </c>
+      <c r="E78" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>716</v>
+      </c>
+      <c r="C79" t="s">
+        <v>717</v>
+      </c>
+      <c r="D79" t="s">
+        <v>718</v>
+      </c>
+      <c r="E79" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>720</v>
+      </c>
+      <c r="C80" t="s">
+        <v>721</v>
+      </c>
+      <c r="D80" t="s">
+        <v>722</v>
+      </c>
+      <c r="E80" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>724</v>
+      </c>
+      <c r="C81" t="s">
+        <v>725</v>
+      </c>
+      <c r="D81" t="s">
+        <v>726</v>
+      </c>
+      <c r="E81" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>728</v>
+      </c>
+      <c r="C82" t="s">
+        <v>729</v>
+      </c>
+      <c r="D82" t="s">
+        <v>730</v>
+      </c>
+      <c r="E82" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>732</v>
+      </c>
+      <c r="C83" t="s">
+        <v>733</v>
+      </c>
+      <c r="D83" t="s">
+        <v>734</v>
+      </c>
+      <c r="E83" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>736</v>
+      </c>
+      <c r="C84" t="s">
+        <v>737</v>
+      </c>
+      <c r="D84" t="s">
+        <v>738</v>
+      </c>
+      <c r="E84" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>740</v>
+      </c>
+      <c r="C85" t="s">
+        <v>741</v>
+      </c>
+      <c r="D85" t="s">
+        <v>742</v>
+      </c>
+      <c r="E85" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>744</v>
+      </c>
+      <c r="C86" t="s">
+        <v>745</v>
+      </c>
+      <c r="D86" t="s">
+        <v>746</v>
+      </c>
+      <c r="E86" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>748</v>
+      </c>
+      <c r="C87" t="s">
+        <v>749</v>
+      </c>
+      <c r="D87" t="s">
+        <v>750</v>
+      </c>
+      <c r="E87" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>752</v>
+      </c>
+      <c r="C88" t="s">
+        <v>753</v>
+      </c>
+      <c r="D88" t="s">
+        <v>754</v>
+      </c>
+      <c r="E88" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>756</v>
+      </c>
+      <c r="C89" t="s">
+        <v>757</v>
+      </c>
+      <c r="D89" t="s">
+        <v>758</v>
+      </c>
+      <c r="E89" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>760</v>
+      </c>
+      <c r="C90" t="s">
+        <v>761</v>
+      </c>
+      <c r="D90" t="s">
+        <v>762</v>
+      </c>
+      <c r="E90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>764</v>
+      </c>
+      <c r="C91" t="s">
+        <v>765</v>
+      </c>
+      <c r="D91" t="s">
+        <v>766</v>
+      </c>
+      <c r="E91" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>768</v>
+      </c>
+      <c r="C92" t="s">
+        <v>769</v>
+      </c>
+      <c r="D92" t="s">
+        <v>770</v>
+      </c>
+      <c r="E92" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>772</v>
+      </c>
+      <c r="C93" t="s">
+        <v>773</v>
+      </c>
+      <c r="D93" t="s">
+        <v>774</v>
+      </c>
+      <c r="E93" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>776</v>
+      </c>
+      <c r="C94" t="s">
+        <v>777</v>
+      </c>
+      <c r="D94" t="s">
+        <v>778</v>
+      </c>
+      <c r="E94" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>780</v>
+      </c>
+      <c r="C95" t="s">
+        <v>781</v>
+      </c>
+      <c r="D95" t="s">
+        <v>782</v>
+      </c>
+      <c r="E95" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>784</v>
+      </c>
+      <c r="C96" t="s">
+        <v>785</v>
+      </c>
+      <c r="D96" t="s">
+        <v>786</v>
+      </c>
+      <c r="E96" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>788</v>
+      </c>
+      <c r="C97" t="s">
+        <v>789</v>
+      </c>
+      <c r="D97" t="s">
+        <v>790</v>
+      </c>
+      <c r="E97" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>792</v>
+      </c>
+      <c r="C98" t="s">
+        <v>793</v>
+      </c>
+      <c r="D98" t="s">
+        <v>794</v>
+      </c>
+      <c r="E98" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>796</v>
+      </c>
+      <c r="C99" t="s">
+        <v>797</v>
+      </c>
+      <c r="D99" t="s">
+        <v>798</v>
+      </c>
+      <c r="E99" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>800</v>
+      </c>
+      <c r="C100" t="s">
+        <v>801</v>
+      </c>
+      <c r="D100" t="s">
+        <v>802</v>
+      </c>
+      <c r="E100" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>804</v>
+      </c>
+      <c r="C101" t="s">
+        <v>805</v>
+      </c>
+      <c r="D101" t="s">
+        <v>806</v>
+      </c>
+      <c r="E101" t="s">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +6387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,16 +6397,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>808</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>809</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>810</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2654,16 +6414,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>812</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>813</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>814</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2671,16 +6431,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>817</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>818</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2688,16 +6448,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>820</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>821</v>
       </c>
       <c r="D4" t="s">
-        <v>310</v>
+        <v>822</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2705,16 +6465,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>824</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>825</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>826</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2722,16 +6482,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>828</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>829</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>830</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2739,16 +6499,84 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>320</v>
+        <v>832</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>833</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>834</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C8" t="s">
+        <v>837</v>
+      </c>
+      <c r="D8" t="s">
+        <v>838</v>
+      </c>
+      <c r="E8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>840</v>
+      </c>
+      <c r="C9" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" t="s">
+        <v>842</v>
+      </c>
+      <c r="E9" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>844</v>
+      </c>
+      <c r="C10" t="s">
+        <v>845</v>
+      </c>
+      <c r="D10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E10" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>848</v>
+      </c>
+      <c r="C11" t="s">
+        <v>849</v>
+      </c>
+      <c r="D11" t="s">
+        <v>850</v>
+      </c>
+      <c r="E11" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
